--- a/01_Input/00_CO Validation/Fiji - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Fiji - Energy Projects.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="540" documentId="11_AF3818257D5C2EB790A36748E0DB2781E8A91F78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E89CCDF-4AE7-4626-8774-5FA58D15778B}"/>
+  <xr:revisionPtr revIDLastSave="677" documentId="11_AF3818257D5C2EB790A36748E0DB2781E8A91F78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB168D6D-4C92-44F2-BA23-352EE4072C3A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="178">
   <si>
     <t>Project ID</t>
   </si>
@@ -95,135 +99,114 @@
     <t>http://open.undp.org/projects/00115827</t>
   </si>
   <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Number of operational PV systems</t>
+  </si>
+  <si>
+    <t>Solar based power supplied to executive residences/buildings of national importance in Fiji, Tonga, Kiribati, Nauru, Solomon Islands, Vanuatu, RMI, FSM, Palau, Tuvali and Timor-Leste by end of project (At least 1 per country)</t>
+  </si>
+  <si>
+    <t>India - UN Development Partnership Fund</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Fiji (+10 member countries of Pacific Island Development Forum)</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of women and men that have built capacity on the operation and maintenance of grid connected solar PV</t>
+  </si>
+  <si>
+    <t>At least 1 per country</t>
+  </si>
+  <si>
+    <t>Number of manuals on the operation and meintenance of grid-connected solar PV</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Renewable EnergyEnergy Infrastructure</t>
+  </si>
+  <si>
+    <t>BRANTV</t>
+  </si>
+  <si>
+    <t>PIMS+</t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
+    <t>Cumulative tons of incremental GHG emissions reduced from business as usual (tons CO2)</t>
+  </si>
+  <si>
+    <t>tons of CO2</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>Incremental number of households (with at least 20% woman-headed) in rural areas whose level of energy access is increased via village-scale off-grid RE or that benefit from newly adopting EE cook stoves</t>
+  </si>
+  <si>
+    <t>14000 HH</t>
+  </si>
+  <si>
+    <t>FASNETT</t>
+  </si>
+  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Number of operational PV systems</t>
-  </si>
-  <si>
-    <t>Solar based power supplied to executive residences/buildings of national importance in Fiji, Tonga, Kiribati, Nauru, Solomon Islands, Vanuatu, RMI, FSM, Palau, Tuvali and Timor-Leste by end of project (At least 1 per country)</t>
-  </si>
-  <si>
-    <t>India - UN Development Partnership Fund</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>To CO: Please provide estimate for MW</t>
-  </si>
-  <si>
-    <t>Fiji (+10 member countries of Pacific Island Development Forum)</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Number of women and men that have built capacity on the operation and maintenance of grid connected solar PV</t>
-  </si>
-  <si>
-    <t>At least 1 per country</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Number of manuals on the operation and meintenance of grid-connected solar PV</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Renewable EnergyEnergy Infrastructure</t>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Prodoc pg. 52</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate MWs.</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Cumulative GHG (CO2) emission reduction from power generation, tons CO2</t>
+  </si>
+  <si>
+    <t>tons CO2</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Number of news articles in national media</t>
-  </si>
-  <si>
-    <t>Newspaper, homepages etc on the project</t>
-  </si>
-  <si>
-    <t>BRANTV</t>
-  </si>
-  <si>
-    <t>PIMS+</t>
+    <t>Number of women actively involved in the planing and implementation of energy services provision in the outer islands</t>
   </si>
   <si>
     <t>Other Energy Services</t>
   </si>
   <si>
-    <t>Cumulative tons of incremental GHG emissions reduced from business as usual (tons CO2)</t>
-  </si>
-  <si>
-    <t>tons of CO2</t>
-  </si>
-  <si>
-    <t>GEF</t>
-  </si>
-  <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Incremental number of households (with at least 20% woman-headed) in rural areas whose level of energy access is increased via village-scale off-grid RE or that benefit from newly adopting EE cook stoves</t>
-  </si>
-  <si>
-    <t>14000 HH</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t>GHG Emissions Reduction</t>
-  </si>
-  <si>
-    <t>tCO2</t>
-  </si>
-  <si>
-    <t>Liters DFO</t>
-  </si>
-  <si>
-    <t>Million kgs</t>
-  </si>
-  <si>
-    <t>FASNETT</t>
-  </si>
-  <si>
-    <t>%share of RE in national power generation mix</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate MWs.</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Cumulative GHG (CO2) emission reduction from power generation, tons CO2</t>
-  </si>
-  <si>
-    <t>tons CO2</t>
-  </si>
-  <si>
-    <t>Number of women actively involved in the planing and implementation of energy services provision in the outer islands</t>
-  </si>
-  <si>
     <t>Number of communities that are capable of organizing,  planning, designing, implementing, operating and maintaining RE-based power generation systems</t>
   </si>
   <si>
@@ -231,6 +214,12 @@
   </si>
   <si>
     <t>Number of households, schools, public buildings and commercial eatblishments that are using low carbon technologies (by RE and EE based energy systems)</t>
+  </si>
+  <si>
+    <t>396 HH</t>
+  </si>
+  <si>
+    <t>410 HH</t>
   </si>
   <si>
     <t xml:space="preserve">to the CO: Please estimate number of beneficiaries.
@@ -243,87 +232,180 @@
     <t>Number of companies adopting the established standards in supplying or producing RE/EE system equipment or component parts</t>
   </si>
   <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <t>Number of established and operational financing schemes for RE/EE projects</t>
+  </si>
+  <si>
+    <t>Number of private sector RE/EE projects financed by commercial banks and/or the private sector</t>
+  </si>
+  <si>
+    <t>SMARTEN</t>
+  </si>
+  <si>
+    <t>Cumulative GHG emission reduction from fossil fuel utilization in the electricity sector, tons CO2</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>tCO2</t>
+  </si>
+  <si>
+    <t>ton oil equivalent</t>
+  </si>
+  <si>
+    <t>Number of consumers</t>
+  </si>
+  <si>
+    <t>Prodoc pg. 91</t>
+  </si>
+  <si>
+    <t>Number of individuals gainfully employed in new jobs created due to the application of RE and EE technologies in the country</t>
+  </si>
+  <si>
+    <t>12 men and 12 women directly employed. 6 men and 6 women indirectly employed</t>
+  </si>
+  <si>
+    <t>POIDIER</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Number of individuals in Kiribati that become gainfully engaged in RE and EE technology-related activities and businesses</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>number of outer island households with increased level of energy access by at least 50% more kWh/day electricity or improved cooking conditions</t>
+  </si>
+  <si>
+    <t>12274 HH</t>
+  </si>
+  <si>
+    <t>Number of local private sector firms that can capably provide technical, engineering, maintenance and billing services for SE and LC technology application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of adopted and enforced policies and regulations that facilitate increased LC technology applications </t>
+  </si>
+  <si>
+    <t>Number of government departments and/or companies that develop and implement bilateral agreements with EPU on well coordinated low carbon technology programs/projects for power and non-power applications</t>
+  </si>
+  <si>
+    <t>Number of outer islands that officailly adopt and begin to implement whole island RE and EE plans</t>
+  </si>
+  <si>
+    <t>Number of financing achemes/mechanisms adopted by financial institutions for supportingclimate resielient and low-carbon development initiatives in the country</t>
+  </si>
+  <si>
+    <t>Number of outer island businesses that receive grants made from RE/EE specific financing mechanism for productive use equipment</t>
+  </si>
+  <si>
+    <t>Number of concessionaire-operated OI RE mini-grids successfully collecting revenues from all users (for at least 85% of the power used)</t>
+  </si>
+  <si>
+    <t>Number of households that receive cook stoves</t>
+  </si>
+  <si>
+    <t>pg. 143</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
+    <t>Number of people benefitted from this program</t>
+  </si>
+  <si>
+    <t>pg. 140</t>
+  </si>
+  <si>
+    <t>MPSBEE</t>
+  </si>
+  <si>
+    <t>Cumulative incremental GHG emission reduction from the buildings sector, tons CO2e</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries</t>
+  </si>
+  <si>
+    <t>2500 HH</t>
+  </si>
+  <si>
+    <t>pg. 76</t>
+  </si>
+  <si>
+    <t>Number of approved and followed EC and EE policies, and associated guidance and implementing rules and regulations</t>
+  </si>
+  <si>
+    <t>Number of public sector buildings that are compliant to energy standards stipulated in building EC and EE policies and associated guidance and implementing rules and regulations</t>
+  </si>
+  <si>
+    <t>Number of buildings reviewed under established and operational energy audit system for comprehensive best commercially available EE equipment, EE demos and replication renovations</t>
+  </si>
+  <si>
+    <t>Number of state/national level quarterly reports on public sector buildings energy use from state power utilities and consumption reports as per the EMRS</t>
+  </si>
+  <si>
+    <t>Number of building/Sectoral level ISO50001 style annual reports submitted to the FSM Energy Group</t>
+  </si>
+  <si>
+    <t>Number of trained public sector building personnel that can ably manage the design, implement and evaluate building of EC and EE application projects</t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t>Number of news articles in national media</t>
+  </si>
+  <si>
+    <t>Newspaper, homepages etc on the project</t>
+  </si>
+  <si>
+    <t>Liters DFO</t>
+  </si>
+  <si>
+    <t>Million kgs</t>
+  </si>
+  <si>
+    <t>%share of RE in national power generation mix</t>
+  </si>
+  <si>
     <t>% users of RE and EE system equipment and components parts that are satisfied with the quality, cost and operating performance of these items.</t>
   </si>
   <si>
     <t>Increased number of low carbon technology projects (new, or replication, or scale-up)</t>
   </si>
   <si>
-    <t>Small Enterprises</t>
-  </si>
-  <si>
-    <t>Number of established and operational financing schemes for RE/EE projects</t>
-  </si>
-  <si>
-    <t>Number of private sector RE/EE projects financed by commercial banks and/or the private sector</t>
-  </si>
-  <si>
     <t>Increase in government budget for los carbon technology-based projects in US$</t>
   </si>
   <si>
     <t>US$</t>
   </si>
   <si>
-    <t>SMARTEN</t>
-  </si>
-  <si>
-    <t>Cumulative GHG emission reduction from fossil fuel utilization in the electricity sector, tons CO2</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>ton oil equivalent</t>
-  </si>
-  <si>
     <t>Percentage RE electricity production</t>
   </si>
   <si>
     <t>percentage electricity production</t>
   </si>
   <si>
-    <t>Number of individuals gainfully employed in new jobs created due to the application of RE and EE technologies in the country</t>
-  </si>
-  <si>
-    <t>12 men and 12 women directly employed. 6 men and 6 women indirectly employed</t>
-  </si>
-  <si>
-    <t>POIDIER</t>
-  </si>
-  <si>
-    <t>Number of individuals in Kiribati that become gainfully engaged in RE and EE technology-related activities and businesses</t>
-  </si>
-  <si>
     <t>60 percent (with at least half being women)</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
     <t>Percentage of island population in demo outer islands that understand principles and benefits of LC development</t>
   </si>
   <si>
-    <t>Number of local private sector firms that can capably provide technical, engineering, maintenance and billing services for SE and LC technology application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of adopted and enforced policies and regulations that facilitate increased LC technology applications </t>
-  </si>
-  <si>
-    <t>Number of government departments and/or companies that develop and implement bilateral agreements with EPU on well coordinated low carbon technology programs/projects for power and non-power applications</t>
-  </si>
-  <si>
-    <t>Number of outer islands that officailly adopt and begin to implement whole island RE and EE plans</t>
-  </si>
-  <si>
-    <t>Number of financing achemes/mechanisms adopted by financial institutions for supportingclimate resielient and low-carbon development initiatives in the country</t>
-  </si>
-  <si>
-    <t>Number of outer island businesses that receive grants made from RE/EE specific financing mechanism for productive use equipment</t>
-  </si>
-  <si>
-    <t>Number of concessionaire-operated OI RE mini-grids successfully collecting revenues from all users (for at least 85% of the power used)</t>
-  </si>
-  <si>
     <t>Percentage increase from pre-project levels in capacity of RE mini-grids that are installed with a given amount of donor funds</t>
   </si>
   <si>
@@ -333,27 +415,12 @@
     <t>Number of OI replication projects for priority sites for which both detailed design and financial analysis have been conducted</t>
   </si>
   <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
     <t>Cumulative volume of water used in agricultural activities produced by RE-based water production and supply systems in KL</t>
   </si>
   <si>
     <t>Kl</t>
   </si>
   <si>
-    <t>MPSBEE</t>
-  </si>
-  <si>
     <t>Specific energy consumption in the buildings sector, Kwh/m2/yr</t>
   </si>
   <si>
@@ -366,37 +433,16 @@
     <t>Micronesia</t>
   </si>
   <si>
-    <t>Cumulative incremental GHG emission reduction from the buildings sector, tons CO2e</t>
-  </si>
-  <si>
     <t>tons oil equivalent of diesel</t>
   </si>
   <si>
     <t>Number of new jobs created in the application of EC and EE technologies and techniques in the country's building sector</t>
   </si>
   <si>
-    <t>Number of approved and followed EC and EE policies, and associated guidance and implementing rules and regulations</t>
-  </si>
-  <si>
-    <t>Number of public sector buildings that are compliant to energy standards stipulated in building EC and EE policies and associated guidance and implementing rules and regulations</t>
-  </si>
-  <si>
-    <t>Number of buildings reviewed under established and operational energy audit system for comprehensive best commercially available EE equipment, EE demos and replication renovations</t>
-  </si>
-  <si>
-    <t>Number of state/national level quarterly reports on public sector buildings energy use from state power utilities and consumption reports as per the EMRS</t>
-  </si>
-  <si>
-    <t>Number of building/Sectoral level ISO50001 style annual reports submitted to the FSM Energy Group</t>
-  </si>
-  <si>
     <t>Number of public sector building EE technology application projects designed and financed for implementation ad demonstrations</t>
   </si>
   <si>
     <t>Number of EC and EE projects implemented in public sector buildings influenced by the results and outcomes of the implemented technology application demonstration</t>
-  </si>
-  <si>
-    <t>Number of trained public sector building personnel that can ably manage the design, implement and evaluate building of EC and EE application projects</t>
   </si>
   <si>
     <t>Number of public sector buildings with established energy management programs with implemented EC and EE projects</t>
@@ -535,9 +581,6 @@
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
-  </si>
-  <si>
-    <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
@@ -673,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -712,15 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -733,6 +767,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -741,7 +867,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -815,39 +941,100 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,11 +1357,1744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDC79C-B9D6-4852-8D1F-D5EAB1B16F2F}">
+  <dimension ref="A1:S63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" customWidth="1"/>
+    <col min="14" max="14" width="70.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="121.5">
+      <c r="A2" s="49">
+        <v>115827</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1575829</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>11</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="76.5">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>12</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="91.5">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>12</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="60.75">
+      <c r="A5" s="55">
+        <v>5926</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2639726</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45016.1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" ht="121.5">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="45.75">
+      <c r="A7" s="49">
+        <v>5613</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="47">
+        <v>2639725</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="60.75">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>15000</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" ht="76.5">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="106.5">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" ht="106.5">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="76.5">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="91.5">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="60.75">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="60.75">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="60.75">
+      <c r="A16" s="55">
+        <v>6188</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3302968</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>43858</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="1:19" ht="60.75">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>27011</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="45.75">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1390</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="43"/>
+      <c r="O18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" ht="76.5">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>24</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" ht="76.5">
+      <c r="A20" s="49">
+        <v>6159</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="47">
+        <v>5379452</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>60</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21" spans="1:19" ht="91.5">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22" spans="1:19" ht="106.5">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>8</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" ht="76.5">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>13</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="152.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="60.75">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>20</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="121.5">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="42"/>
+      <c r="O26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+    </row>
+    <row r="27" spans="1:19" ht="91.5">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>60</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" ht="91.5">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>15</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+    </row>
+    <row r="29" spans="1:19" ht="45.75">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>11000</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="42"/>
+      <c r="O29" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+    </row>
+    <row r="30" spans="1:19" ht="60.75">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" ht="45.75">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" ht="60.75">
+      <c r="A32" s="55">
+        <v>5997</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1776484</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>3974</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="41"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" ht="45.75">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="41"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+    </row>
+    <row r="34" spans="1:19" ht="45.75">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="41"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+    </row>
+    <row r="35" spans="1:19" ht="91.5">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>3</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="41"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="121.5">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>14</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="41"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="121.5">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>30</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="41"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="106.5">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>4</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="41"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="76.5">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>14</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="41"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="91.5">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>10</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="41"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="M41" s="30"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="M42" s="30"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="M44" s="30"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="M45" s="30"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="M46" s="30"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="M47" s="30"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="M48" s="30"/>
+    </row>
+    <row r="49" spans="7:13">
+      <c r="M49" s="30"/>
+    </row>
+    <row r="50" spans="7:13">
+      <c r="M50" s="30"/>
+    </row>
+    <row r="51" spans="7:13">
+      <c r="M51" s="30"/>
+    </row>
+    <row r="52" spans="7:13">
+      <c r="M52" s="30"/>
+    </row>
+    <row r="53" spans="7:13">
+      <c r="G53" s="4"/>
+      <c r="M53" s="30"/>
+    </row>
+    <row r="54" spans="7:13">
+      <c r="M54" s="30"/>
+    </row>
+    <row r="55" spans="7:13">
+      <c r="M55" s="30"/>
+    </row>
+    <row r="56" spans="7:13">
+      <c r="M56" s="30"/>
+    </row>
+    <row r="57" spans="7:13">
+      <c r="M57" s="30"/>
+    </row>
+    <row r="58" spans="7:13">
+      <c r="M58" s="30"/>
+    </row>
+    <row r="59" spans="7:13">
+      <c r="M59" s="30"/>
+    </row>
+    <row r="60" spans="7:13">
+      <c r="M60" s="30"/>
+    </row>
+    <row r="61" spans="7:13">
+      <c r="M61" s="30"/>
+    </row>
+    <row r="62" spans="7:13">
+      <c r="M62" s="30"/>
+    </row>
+    <row r="63" spans="7:13">
+      <c r="M63" s="30"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E17 E8 E5 E32" xr:uid="{52C5D48E-D79F-4A6D-8FCD-BBCACFC6DEE0}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q40" xr:uid="{C439934C-3034-436E-8E3C-251ABD166B98}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S76" xr:uid="{AC62586A-B9D6-4CB8-B416-E3B22B62ED03}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R76" xr:uid="{101C01E0-252F-4BB5-B89D-F673AA351BDF}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P77" xr:uid="{EA5FC6D5-B093-4DC3-A5EC-B83C46170898}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O77" xr:uid="{1444403A-6234-44D2-8221-8F1C9266EC91}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{506D29C7-E17C-48DD-B1F9-0BA424C1B44E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86A6D56D-AAC3-4244-87F3-C21733BA9463}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:E7 E9:E15 E18:E31 E33:E40 E2:E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD8FC40-B3FE-463A-89F3-C6C42EBB8E90}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29:S31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,19 +3109,22 @@
     <col min="10" max="10" width="14.140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="34.5703125" customWidth="1"/>
     <col min="14" max="14" width="70.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1222,48 +3145,48 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="121.5">
-      <c r="A2" s="10">
+      <c r="A2" s="49">
         <v>115827</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="47">
         <v>1575829</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="44" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -1272,39 +3195,43 @@
       <c r="G2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10">
+        <v>11</v>
+      </c>
       <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="32" t="s">
         <v>24</v>
       </c>
+      <c r="K2" s="36"/>
       <c r="L2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="76.5">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="76.5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -1313,28 +3240,35 @@
         <v>12</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="L3" s="38"/>
-      <c r="N3" s="10"/>
-      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="60.75">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="91.5">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -1343,32 +3277,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="L4" s="38"/>
-      <c r="N4" s="10"/>
-      <c r="O4" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30.75">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12" t="s">
-        <v>37</v>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="60.75">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -1377,36 +3316,43 @@
         <v>48</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="L5" s="38"/>
-      <c r="N5" s="10"/>
-      <c r="O5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="60.75">
-      <c r="A6" s="14">
+      <c r="A6" s="55">
         <v>5926</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="B6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="25">
         <v>2639726</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>42</v>
+      <c r="E6" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G6" s="14">
         <v>0</v>
@@ -1415,68 +3361,73 @@
         <v>45016.1</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="121.5">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="121.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="I7" s="16"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="26">
+      <c r="J7" s="34"/>
+      <c r="K7" s="38">
         <v>0.2</v>
       </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="L7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="45.75">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="14">
         <v>0</v>
       </c>
@@ -1484,31 +3435,32 @@
         <v>704</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="L8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>53</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" ht="45.75">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="14">
         <v>0</v>
       </c>
@@ -1516,73 +3468,82 @@
         <v>24960</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="60.75">
+      <c r="A10" s="49">
+        <v>5613</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30.75">
-      <c r="A10" s="10">
-        <v>5613</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="47">
         <v>2639725</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="13" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="G10" s="19">
         <v>0.26</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="1:19" ht="60.75">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
@@ -1591,30 +3552,35 @@
         <v>15000</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
     </row>
     <row r="12" spans="1:19" ht="76.5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
@@ -1623,28 +3589,33 @@
         <v>10</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" t="s">
-        <v>48</v>
-      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="106.5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12" t="s">
-        <v>42</v>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -1653,31 +3624,35 @@
         <v>4</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" t="s">
-        <v>48</v>
-      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="106.5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12" t="s">
-        <v>42</v>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G14" s="10">
         <v>396</v>
@@ -1686,31 +3661,35 @@
         <v>410</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="76.5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -1719,34 +3698,37 @@
         <v>100</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="12"/>
-      <c r="L15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" t="s">
-        <v>48</v>
+      <c r="J15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="91.5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12" t="s">
-        <v>33</v>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
@@ -1755,34 +3737,37 @@
         <v>2</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="L16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" t="s">
-        <v>48</v>
+      <c r="J16" s="33"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="106.5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12" t="s">
-        <v>37</v>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -1791,31 +3776,35 @@
         <v>0.8</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="12"/>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" t="s">
-        <v>48</v>
-      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="1:19" ht="60.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12" t="s">
-        <v>37</v>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="G18" s="10">
         <v>16</v>
@@ -1824,31 +3813,35 @@
         <v>26</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="12"/>
-      <c r="L18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="34" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="O18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" ht="60.75">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="45.75">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F19" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -1857,31 +3850,35 @@
         <v>2</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="12"/>
-      <c r="L19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="34" t="s">
+      <c r="J19" s="33"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" ht="60.75">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="60.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F20" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -1890,31 +3887,35 @@
         <v>2</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" t="s">
-        <v>48</v>
-      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="O20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:19" ht="60.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -1923,41 +3924,45 @@
         <v>400000</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="L21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" t="s">
-        <v>48</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
     </row>
     <row r="22" spans="1:19" ht="60.75">
-      <c r="A22" s="14">
+      <c r="A22" s="55">
         <v>6188</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="B22" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="25">
         <v>3302968</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>52</v>
+      <c r="E22" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G22" s="14">
         <v>0</v>
@@ -1966,34 +3971,39 @@
         <v>43858</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" ht="60.75">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G23" s="14">
         <v>0</v>
@@ -2002,63 +4012,72 @@
         <v>27011</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="L23" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="36"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" ht="60.75">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="P23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="30.75">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="F24" s="16" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="G24" s="21">
         <v>0.03</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="L24" t="s">
-        <v>46</v>
+        <v>120</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N24" s="43"/>
+      <c r="O24" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:19" ht="76.5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="s">
-        <v>37</v>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" s="14">
         <v>0</v>
@@ -2067,83 +4086,90 @@
         <v>24</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="26">
+        <v>76</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="38">
         <v>0.5</v>
       </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" t="s">
-        <v>48</v>
-      </c>
+      <c r="L25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
     </row>
     <row r="26" spans="1:19" ht="76.5">
-      <c r="A26" s="10">
+      <c r="A26" s="49">
         <v>6159</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="B26" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="47">
         <v>5379452</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>37</v>
+      <c r="E26" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="I26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="L26" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" t="s">
-        <v>48</v>
-      </c>
+      <c r="N26" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
     </row>
     <row r="27" spans="1:19" ht="76.5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12" t="s">
-        <v>37</v>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G27" s="19">
         <v>0</v>
@@ -2152,31 +4178,35 @@
         <v>0.8</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="12"/>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="36" t="s">
+      <c r="J27" s="33"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" ht="106.5">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="106.5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F28" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -2185,29 +4215,33 @@
         <v>8</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="12"/>
-      <c r="L28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="10"/>
-      <c r="O28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" t="s">
-        <v>48</v>
-      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:19" ht="76.5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12" t="s">
-        <v>33</v>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2216,35 +4250,37 @@
         <v>13</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="12"/>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="10"/>
-      <c r="O29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" t="s">
-        <v>48</v>
+      <c r="J29" s="33"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="152.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12" t="s">
-        <v>33</v>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -2253,35 +4289,37 @@
         <v>4</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="12"/>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="10"/>
-      <c r="O30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" t="s">
-        <v>35</v>
-      </c>
-      <c r="S30" t="s">
-        <v>48</v>
+      <c r="J30" s="33"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="60.75">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12" t="s">
-        <v>33</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -2290,35 +4328,37 @@
         <v>20</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
-      <c r="L31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="36"/>
-      <c r="N31" s="10"/>
-      <c r="O31" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" t="s">
-        <v>48</v>
+      <c r="J31" s="33"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="121.5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12" t="s">
-        <v>72</v>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2327,31 +4367,35 @@
         <v>1</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
-      <c r="L32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="36" t="s">
+      <c r="J32" s="33"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" ht="91.5">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="91.5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
@@ -2360,32 +4404,35 @@
         <v>60</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="26">
+      <c r="J33" s="33"/>
+      <c r="K33" s="38">
         <v>0.5</v>
       </c>
-      <c r="L33" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="10"/>
-      <c r="O33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" t="s">
-        <v>48</v>
-      </c>
+      <c r="L33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
     </row>
     <row r="34" spans="1:19" ht="91.5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12" t="s">
-        <v>72</v>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
@@ -2394,31 +4441,35 @@
         <v>15</v>
       </c>
       <c r="I34" s="13"/>
-      <c r="J34" s="12"/>
-      <c r="L34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="10"/>
-      <c r="O34" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" t="s">
-        <v>48</v>
-      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="42"/>
+      <c r="O34" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
     </row>
     <row r="35" spans="1:19" ht="91.5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12" t="s">
-        <v>42</v>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
@@ -2427,31 +4478,35 @@
         <v>1</v>
       </c>
       <c r="I35" s="13"/>
-      <c r="J35" s="12"/>
-      <c r="L35" t="s">
-        <v>46</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" s="10"/>
-      <c r="O35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" t="s">
-        <v>48</v>
-      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="42"/>
+      <c r="O35" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
     </row>
     <row r="36" spans="1:19" ht="106.5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12" t="s">
-        <v>51</v>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
@@ -2460,31 +4515,35 @@
         <v>0.6</v>
       </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="12"/>
-      <c r="L36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M36" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="10"/>
-      <c r="O36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" t="s">
-        <v>51</v>
-      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="42"/>
+      <c r="O36" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
     </row>
     <row r="37" spans="1:19" ht="91.5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12" t="s">
-        <v>37</v>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -2493,31 +4552,35 @@
         <v>30</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="12"/>
-      <c r="L37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="J37" s="33"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="42"/>
+      <c r="O37" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="60.75">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
@@ -2526,31 +4589,35 @@
         <v>0.4</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="L38" t="s">
-        <v>46</v>
-      </c>
-      <c r="M38" s="36"/>
-      <c r="N38" s="10"/>
-      <c r="O38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="41"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
     </row>
     <row r="39" spans="1:19" ht="76.5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12" t="s">
-        <v>103</v>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
@@ -2559,41 +4626,45 @@
         <v>109325</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="L39" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" s="10"/>
-      <c r="O39" t="s">
-        <v>28</v>
-      </c>
-      <c r="P39" t="s">
-        <v>48</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="42"/>
+      <c r="O39" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
     </row>
     <row r="40" spans="1:19" ht="60.75">
-      <c r="A40" s="14">
+      <c r="A40" s="55">
         <v>5997</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="B40" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="25">
         <v>1776484</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>52</v>
+      <c r="E40" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="G40" s="14">
         <v>150</v>
@@ -2602,37 +4673,41 @@
         <v>140</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" t="s">
-        <v>46</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O40" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" t="s">
-        <v>48</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
     </row>
     <row r="41" spans="1:19" ht="60.75">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15" t="s">
-        <v>52</v>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -2641,29 +4716,33 @@
         <v>3974</v>
       </c>
       <c r="I41" s="16"/>
-      <c r="J41" s="15"/>
-      <c r="L41" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="14"/>
-      <c r="O41" t="s">
-        <v>28</v>
-      </c>
-      <c r="P41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
-        <v>52</v>
+      <c r="J41" s="34"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="41"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="60.75">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G42" s="14">
         <v>0</v>
@@ -2672,31 +4751,35 @@
         <v>2017</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="L42" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" s="36"/>
-      <c r="N42" s="14"/>
-      <c r="O42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" t="s">
-        <v>48</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="41"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
     </row>
     <row r="43" spans="1:19" ht="76.5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
-        <v>42</v>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="53" t="s">
+        <v>56</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G43" s="14">
         <v>0</v>
@@ -2705,29 +4788,33 @@
         <v>4</v>
       </c>
       <c r="I43" s="16"/>
-      <c r="J43" s="15"/>
-      <c r="L43" t="s">
-        <v>46</v>
-      </c>
-      <c r="M43" s="36"/>
-      <c r="N43" s="14"/>
-      <c r="O43" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" t="s">
-        <v>48</v>
-      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="41"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:19" ht="91.5">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
-        <v>33</v>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G44" s="14">
         <v>0</v>
@@ -2736,35 +4823,37 @@
         <v>3</v>
       </c>
       <c r="I44" s="16"/>
-      <c r="J44" s="15"/>
-      <c r="L44" t="s">
-        <v>46</v>
-      </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="14"/>
-      <c r="O44" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" t="s">
-        <v>48</v>
-      </c>
-      <c r="R44" t="s">
-        <v>35</v>
-      </c>
-      <c r="S44" t="s">
-        <v>48</v>
+      <c r="J44" s="34"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="41"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="121.5">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15" t="s">
-        <v>33</v>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G45" s="14">
         <v>0</v>
@@ -2773,35 +4862,37 @@
         <v>14</v>
       </c>
       <c r="I45" s="16"/>
-      <c r="J45" s="15"/>
-      <c r="L45" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="36"/>
-      <c r="N45" s="14"/>
-      <c r="O45" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" t="s">
-        <v>48</v>
-      </c>
-      <c r="R45" t="s">
-        <v>35</v>
-      </c>
-      <c r="S45" t="s">
-        <v>48</v>
+      <c r="J45" s="34"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="41"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="121.5">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15" t="s">
-        <v>33</v>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -2810,35 +4901,37 @@
         <v>30</v>
       </c>
       <c r="I46" s="16"/>
-      <c r="J46" s="15"/>
-      <c r="L46" t="s">
-        <v>46</v>
-      </c>
-      <c r="M46" s="36"/>
-      <c r="N46" s="14"/>
-      <c r="O46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" t="s">
-        <v>48</v>
-      </c>
-      <c r="R46" t="s">
-        <v>35</v>
-      </c>
-      <c r="S46" t="s">
-        <v>48</v>
+      <c r="J46" s="34"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46" s="41"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="106.5">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="s">
-        <v>33</v>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -2847,35 +4940,37 @@
         <v>4</v>
       </c>
       <c r="I47" s="16"/>
-      <c r="J47" s="15"/>
-      <c r="L47" t="s">
-        <v>46</v>
-      </c>
-      <c r="M47" s="36"/>
-      <c r="N47" s="14"/>
-      <c r="O47" t="s">
-        <v>28</v>
-      </c>
-      <c r="P47" t="s">
-        <v>48</v>
-      </c>
-      <c r="R47" t="s">
-        <v>35</v>
-      </c>
-      <c r="S47" t="s">
-        <v>48</v>
+      <c r="J47" s="34"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="41"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="76.5">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15" t="s">
-        <v>33</v>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -2884,35 +4979,37 @@
         <v>14</v>
       </c>
       <c r="I48" s="16"/>
-      <c r="J48" s="15"/>
-      <c r="L48" t="s">
-        <v>46</v>
-      </c>
-      <c r="M48" s="36"/>
-      <c r="N48" s="14"/>
-      <c r="O48" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" t="s">
-        <v>48</v>
-      </c>
-      <c r="R48" t="s">
-        <v>35</v>
-      </c>
-      <c r="S48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="91.5">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15" t="s">
-        <v>37</v>
+      <c r="J48" s="34"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="41"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="91.5">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
@@ -2921,31 +5018,35 @@
         <v>14</v>
       </c>
       <c r="I49" s="16"/>
-      <c r="J49" s="15"/>
-      <c r="L49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M49" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49" s="14"/>
-      <c r="O49" t="s">
-        <v>28</v>
-      </c>
-      <c r="P49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="106.5">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15" t="s">
-        <v>37</v>
+      <c r="J49" s="34"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="43"/>
+      <c r="O49" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+    </row>
+    <row r="50" spans="1:19" ht="106.5">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -2954,31 +5055,35 @@
         <v>16</v>
       </c>
       <c r="I50" s="16"/>
-      <c r="J50" s="15"/>
-      <c r="L50" t="s">
-        <v>46</v>
-      </c>
-      <c r="M50" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="14"/>
-      <c r="O50" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="91.5">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15" t="s">
-        <v>30</v>
+      <c r="J50" s="34"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" s="43"/>
+      <c r="O50" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+    </row>
+    <row r="51" spans="1:19" ht="91.5">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="53" t="s">
+        <v>78</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -2987,29 +5092,33 @@
         <v>10</v>
       </c>
       <c r="I51" s="16"/>
-      <c r="J51" s="15"/>
-      <c r="L51" t="s">
-        <v>46</v>
-      </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="14"/>
-      <c r="O51" t="s">
-        <v>28</v>
-      </c>
-      <c r="P51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="91.5">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15" t="s">
-        <v>37</v>
+      <c r="J51" s="34"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="41"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+    </row>
+    <row r="52" spans="1:19" ht="91.5">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -3018,95 +5127,96 @@
         <v>32</v>
       </c>
       <c r="I52" s="16"/>
-      <c r="J52" s="15"/>
-      <c r="L52" t="s">
-        <v>46</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" s="14"/>
-      <c r="O52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="M53" s="36"/>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="M54" s="36"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="M55" s="36"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="M56" s="36"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="M57" s="36"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="M58" s="36"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="M59" s="36"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="M60" s="36"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="M61" s="36"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="M62" s="36"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="M63" s="36"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="M64" s="36"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="43"/>
+      <c r="O52" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="M53" s="30"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="M54" s="30"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="M55" s="30"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="M56" s="30"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="M57" s="30"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="M58" s="30"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="M59" s="30"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="M60" s="30"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="M61" s="30"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="M62" s="30"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="M63" s="30"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="M64" s="30"/>
     </row>
     <row r="65" spans="7:13">
       <c r="G65" s="4"/>
-      <c r="M65" s="36"/>
+      <c r="M65" s="30"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="M66" s="36"/>
+      <c r="M66" s="30"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="M67" s="36"/>
+      <c r="M67" s="30"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="M68" s="36"/>
+      <c r="M68" s="30"/>
     </row>
     <row r="69" spans="7:13">
-      <c r="M69" s="36"/>
+      <c r="M69" s="30"/>
     </row>
     <row r="70" spans="7:13">
-      <c r="M70" s="36"/>
+      <c r="M70" s="30"/>
     </row>
     <row r="71" spans="7:13">
-      <c r="M71" s="36"/>
+      <c r="M71" s="30"/>
     </row>
     <row r="72" spans="7:13">
-      <c r="M72" s="36"/>
+      <c r="M72" s="30"/>
     </row>
     <row r="73" spans="7:13">
-      <c r="M73" s="36"/>
+      <c r="M73" s="30"/>
     </row>
     <row r="74" spans="7:13">
-      <c r="M74" s="36"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="7:13">
-      <c r="M75" s="36"/>
+      <c r="M75" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:L5"/>
-  </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O89" xr:uid="{7C25463E-A0DA-4B96-A689-F56254FF59AF}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
@@ -3123,7 +5233,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S88" xr:uid="{ABDF96AF-A8FD-4022-9F3D-FB504C2A9841}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E22:E23 E40:E42" xr:uid="{79B91E17-5ED9-4FCC-8DB3-137A6732A0F1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E22:E23 E40:E42 E6 E11" xr:uid="{79B91E17-5ED9-4FCC-8DB3-137A6732A0F1}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7C8668F4-5C72-48FD-8B5F-C0FA53A9356D}"/>
@@ -3136,7 +5246,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7 E9:E21 E24:E39 E43:E52</xm:sqref>
+          <xm:sqref>E43:E52 E7 E24:E39 E2:E5 E9:E10 E12:E21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3144,11 +5254,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3203,7 +5313,7 @@
     </row>
     <row r="2" spans="1:11" ht="121.5">
       <c r="A2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10">
         <v>115827</v>
@@ -3218,7 +5328,7 @@
         <v>1310000</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>22</v>
@@ -3243,10 +5353,10 @@
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
@@ -3255,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="12"/>
     </row>
@@ -3266,10 +5376,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="10"/>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -3287,10 +5397,10 @@
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
@@ -3299,31 +5409,31 @@
         <v>48</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="60.75">
       <c r="A6" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" s="14">
         <v>5926</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" s="14">
         <v>2639726</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -3332,10 +5442,10 @@
         <v>45016.1</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="121.5">
@@ -3345,10 +5455,10 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H7" s="14">
         <v>0</v>
@@ -3366,10 +5476,10 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
@@ -3378,7 +5488,7 @@
         <v>272212</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="K8" s="15"/>
     </row>
@@ -3389,10 +5499,10 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
@@ -3401,31 +5511,31 @@
         <v>15.6</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="30.75">
       <c r="A10" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10">
         <v>5613</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10">
         <v>2639725</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="H10" s="19">
         <v>0.26</v>
@@ -3434,10 +5544,10 @@
         <v>0.67</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60.75">
@@ -3447,10 +5557,10 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -3459,7 +5569,7 @@
         <v>15000</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K11" s="12"/>
     </row>
@@ -3470,10 +5580,10 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
@@ -3491,10 +5601,10 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H13" s="10">
         <v>0</v>
@@ -3512,10 +5622,10 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H14" s="10">
         <v>396</v>
@@ -3533,10 +5643,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H15" s="10">
         <v>0</v>
@@ -3554,10 +5664,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -3575,10 +5685,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="H17" s="10">
         <v>0</v>
@@ -3596,10 +5706,10 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="H18" s="10">
         <v>16</v>
@@ -3617,10 +5727,10 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H19" s="10">
         <v>0</v>
@@ -3638,10 +5748,10 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H20" s="10">
         <v>0</v>
@@ -3659,10 +5769,10 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="H21" s="10">
         <v>0</v>
@@ -3671,31 +5781,31 @@
         <v>400000</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="60.75">
       <c r="A22" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B22" s="14">
         <v>6188</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E22" s="14">
         <v>3302968</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H22" s="14">
         <v>0</v>
@@ -3704,10 +5814,10 @@
         <v>43858</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="91.5">
@@ -3717,10 +5827,10 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -3729,7 +5839,7 @@
         <v>13955</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K23" s="15"/>
     </row>
@@ -3740,10 +5850,10 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H24" s="21">
         <v>0.03</v>
@@ -3752,7 +5862,7 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="K24" s="15"/>
     </row>
@@ -3763,55 +5873,55 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H25" s="14">
         <v>0</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="76.5">
       <c r="A26" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B26" s="10">
         <v>6159</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E26" s="10">
         <v>5379452</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="76.5">
@@ -3821,10 +5931,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H27" s="19">
         <v>0</v>
@@ -3842,10 +5952,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -3863,10 +5973,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -3884,10 +5994,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
@@ -3905,10 +6015,10 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -3926,10 +6036,10 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -3947,16 +6057,16 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H33" s="10">
         <v>0</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12"/>
@@ -3968,10 +6078,10 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H34" s="10">
         <v>0</v>
@@ -3989,10 +6099,10 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H35" s="10">
         <v>0</v>
@@ -4010,10 +6120,10 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
@@ -4031,10 +6141,10 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
@@ -4052,10 +6162,10 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H38" s="10">
         <v>0</v>
@@ -4064,7 +6174,7 @@
         <v>3460300</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K38" s="12"/>
     </row>
@@ -4075,10 +6185,10 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
@@ -4087,31 +6197,31 @@
         <v>109325</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" ht="60.75">
       <c r="A40" s="14" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B40" s="14">
         <v>5997</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E40" s="14">
         <v>1776484</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="H40" s="14">
         <v>150</v>
@@ -4120,10 +6230,10 @@
         <v>140</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="60.75">
@@ -4133,10 +6243,10 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H41" s="14">
         <v>0</v>
@@ -4154,10 +6264,10 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H42" s="14">
         <v>0</v>
@@ -4166,7 +6276,7 @@
         <v>1042.0999999999999</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="K42" s="15"/>
     </row>
@@ -4177,10 +6287,10 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="15" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H43" s="14">
         <v>0</v>
@@ -4198,10 +6308,10 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H44" s="14">
         <v>0</v>
@@ -4219,10 +6329,10 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H45" s="14">
         <v>0</v>
@@ -4240,10 +6350,10 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
@@ -4261,10 +6371,10 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H47" s="14">
         <v>0</v>
@@ -4282,10 +6392,10 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H48" s="14">
         <v>0</v>
@@ -4303,10 +6413,10 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="15" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H49" s="14">
         <v>0</v>
@@ -4324,10 +6434,10 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="15" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H50" s="14">
         <v>0</v>
@@ -4345,10 +6455,10 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="15" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H51" s="14">
         <v>0</v>
@@ -4360,45 +6470,45 @@
       <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11" ht="91.5">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H52" s="27">
-        <v>0</v>
-      </c>
-      <c r="I52" s="27">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="25">
+        <v>0</v>
+      </c>
+      <c r="I52" s="25">
         <v>32</v>
       </c>
-      <c r="J52" s="29"/>
-      <c r="K52" s="28"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="106.5">
       <c r="A53" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B53" s="12">
         <v>1000416</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>130</v>
+      <c r="C53" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12">
         <v>4622265</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H53" s="12">
         <v>2</v>
@@ -4407,10 +6517,10 @@
         <v>10</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="76.5">
@@ -4420,10 +6530,10 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H54" s="12">
         <v>1250</v>
@@ -4441,10 +6551,10 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H55" s="12">
         <v>2</v>
@@ -4462,10 +6572,10 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H56" s="12">
         <v>10</v>
@@ -4499,7 +6609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4512,160 +6622,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
-        <v>139</v>
+      <c r="A2" s="58" t="s">
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="58"/>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="58"/>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="40" t="s">
-        <v>143</v>
+      <c r="A5" s="59" t="s">
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="59"/>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="59"/>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="59"/>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="59"/>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="41" t="s">
-        <v>152</v>
+      <c r="A10" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="60"/>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="42" t="s">
-        <v>156</v>
+      <c r="A12" s="61" t="s">
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="61"/>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="61"/>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4680,26 +6790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -4948,8 +7038,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E4DDC6-93DE-4726-9ACE-7BD62907D096}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D631E-F8F2-4600-A91D-CAE7CB55D54D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4957,5 +7067,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D631E-F8F2-4600-A91D-CAE7CB55D54D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E4DDC6-93DE-4726-9ACE-7BD62907D096}"/>
 </file>
--- a/01_Input/00_CO Validation/Fiji - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Fiji - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="856" documentId="11_AF3818257D5C2EB790A36748E0DB2781E8A91F78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251077E0-585E-45F4-A9A8-DA688EE5847B}"/>
+  <xr:revisionPtr revIDLastSave="857" documentId="11_AF3818257D5C2EB790A36748E0DB2781E8A91F78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AA405B-B5DB-4506-A86E-1ADAD1B1B991}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="198">
   <si>
     <t>Project ID</t>
   </si>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDC79C-B9D6-4852-8D1F-D5EAB1B16F2F}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2830,9 +2830,7 @@
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
       <c r="D34" s="65"/>
-      <c r="E34" s="58" t="s">
-        <v>56</v>
-      </c>
+      <c r="E34" s="58"/>
       <c r="F34" s="59" t="s">
         <v>102</v>
       </c>
@@ -6911,8 +6909,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -6937,6 +6955,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7016,6 +7035,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7159,28 +7183,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D631E-F8F2-4600-A91D-CAE7CB55D54D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFE58BC-0343-491D-81D1-6EA5BABC1A21}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7188,5 +7192,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFE58BC-0343-491D-81D1-6EA5BABC1A21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53FBF50-A96C-483F-B09E-11D8C1EEF414}"/>
 </file>
--- a/01_Input/00_CO Validation/Fiji - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Fiji - Energy Projects.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="857" documentId="11_AF3818257D5C2EB790A36748E0DB2781E8A91F78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AA405B-B5DB-4506-A86E-1ADAD1B1B991}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1035" documentId="11_AF3818257D5C2EB790A36748E0DB2781E8A91F78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A9E1C7-5EFE-4534-B726-2BE5737D9F8B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Projects (2)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="220">
   <si>
     <t>Project ID</t>
   </si>
@@ -45,6 +50,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -105,6 +113,9 @@
     <t>http://open.undp.org/projects/00115827</t>
   </si>
   <si>
+    <t>Fiji (+10 member countries of Pacific Island Development Forum)</t>
+  </si>
+  <si>
     <t>Number of operational PV systems</t>
   </si>
   <si>
@@ -147,252 +158,318 @@
     <t>BRANTV</t>
   </si>
   <si>
+    <t>https://co.pims.undp.org/project/view?id=5926</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
+    <t>Cumulative tons of incremental GHG emissions reduced from business as usual (million of tons CO2)</t>
+  </si>
+  <si>
+    <t>million tons of CO2</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>Incremental number of households (with at least 20% woman-headed) in rural areas whose level of energy access is increased via village-scale off-grid RE or that benefit from newly adopting EE cook stoves</t>
+  </si>
+  <si>
+    <t>14000 HH</t>
+  </si>
+  <si>
+    <t>FASNETT</t>
+  </si>
+  <si>
+    <t>https://co.pims.undp.org/project/view?id=5613</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Prodoc pg. 82 GEF target</t>
+  </si>
+  <si>
+    <t>Some Sources</t>
+  </si>
+  <si>
+    <t>Cumulative GHG (CO2) emission reduction from power generation, tons CO2</t>
+  </si>
+  <si>
+    <t>tons CO2</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Number of women actively involved in the planing and implementation of energy services provision in the outer islands</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t>Number of communities that are capable of organizing,  planning, designing, implementing, operating and maintaining RE-based power generation systems</t>
+  </si>
+  <si>
+    <t>4 communities</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of households, schools, public buildings and commercial eatblishments that are using low carbon technologies (by RE and EE based energy systems)</t>
+  </si>
+  <si>
+    <t>396 HH</t>
+  </si>
+  <si>
+    <t>410 HH</t>
+  </si>
+  <si>
+    <t>Number of planned RE and EE projects benefitting from the policies and regulations supported by the Energy Act</t>
+  </si>
+  <si>
+    <t>Legal Framework</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Number of companies adopting the established standards in supplying or producing RE/EE system equipment or component parts</t>
+  </si>
+  <si>
+    <t>Number of established and operational financing schemes for RE/EE projects</t>
+  </si>
+  <si>
+    <t>2 financing schemes</t>
+  </si>
+  <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <t>Number of private sector RE/EE projects financed by commercial banks and/or the private sector</t>
+  </si>
+  <si>
+    <t>SMARTEN</t>
+  </si>
+  <si>
+    <t>https://co.pims.undp.org/project/view?id=6188</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Cumulative GHG emission reduction from fossil fuel utilization in the electricity sector, tons CO2</t>
+  </si>
+  <si>
+    <t>tons of CO2</t>
+  </si>
+  <si>
+    <t>Million tons of CO2</t>
+  </si>
+  <si>
+    <t>million ton oil equivalent</t>
+  </si>
+  <si>
+    <t>Number of consumers</t>
+  </si>
+  <si>
+    <t>Prodoc pg. 91</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Number of individuals gainfully employed in new jobs created due to the application of RE and EE technologies in the country</t>
+  </si>
+  <si>
+    <t>12 men and 12 women directly employed. 6 men and 6 women indirectly employed</t>
+  </si>
+  <si>
+    <t>POIDIER</t>
+  </si>
+  <si>
+    <t>https://co.pims.undp.org/project/view?id=6159</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Number of individuals in Kiribati that become gainfully engaged in RE and EE technology-related activities and businesses</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>number of outer island households with increased level of energy access by at least 50% more kWh/day electricity or improved cooking conditions</t>
+  </si>
+  <si>
+    <t>12274 HH</t>
+  </si>
+  <si>
+    <t>Number of local private sector firms that can capably provide technical, engineering, maintenance and billing services for SE and LC technology application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of adopted and enforced policies and regulations that facilitate increased LC technology applications </t>
+  </si>
+  <si>
+    <t>Number of government departments and/or companies that develop and implement bilateral agreements with EPU on well coordinated low carbon technology programs/projects for power and non-power applications</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Number of outer islands that officailly adopt and begin to implement whole island RE and EE plans</t>
+  </si>
+  <si>
+    <t>Number of financing achemes/mechanisms adopted by financial institutions for supportingclimate resielient and low-carbon development initiatives in the country</t>
+  </si>
+  <si>
+    <t>Number of outer island businesses that receive grants made from RE/EE specific financing mechanism for productive use equipment</t>
+  </si>
+  <si>
+    <t>Number of concessionaire-operated OI RE mini-grids successfully collecting revenues from all users (for at least 85% of the power used)</t>
+  </si>
+  <si>
+    <t>Number of households that receive cook stoves</t>
+  </si>
+  <si>
+    <t>pg. 143</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people benefitted from this program</t>
+  </si>
+  <si>
+    <t>pg. 140</t>
+  </si>
+  <si>
+    <t>MPSBEE</t>
+  </si>
+  <si>
+    <t>https://co.pims.undp.org/project/view?id=5997</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Cumulative incremental GHG emission reduction from the buildings sector, million tons CO2e</t>
+  </si>
+  <si>
+    <t>million tons CO2</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries</t>
+  </si>
+  <si>
+    <t>pg. 76</t>
+  </si>
+  <si>
+    <t>Number of approved and followed EC and EE policies, and associated guidance and implementing rules and regulations</t>
+  </si>
+  <si>
+    <t>Number of public sector buildings that are compliant to energy standards stipulated in building EC and EE policies and associated guidance and implementing rules and regulations</t>
+  </si>
+  <si>
+    <t>Number of buildings reviewed under established and operational energy audit system for comprehensive best commercially available EE equipment, EE demos and replication renovations</t>
+  </si>
+  <si>
+    <t>Number of state/national level quarterly reports on public sector buildings energy use from state power utilities and consumption reports as per the EMRS</t>
+  </si>
+  <si>
+    <t>Number of building/Sectoral level ISO50001 style annual reports submitted to the FSM Energy Group</t>
+  </si>
+  <si>
+    <t>Number of trained public sector building personnel that can ably manage the design, implement and evaluate building of EC and EE application projects</t>
+  </si>
+  <si>
+    <t>VAN: Promoting Green Transformation in the Pacific Region towards Net-zero and Climate-resilient Development, Vanuatu</t>
+  </si>
+  <si>
+    <t>Electricity Access / Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Number of Pico Hydro stations installed in 8 locations and integrated in the national Grid System</t>
+  </si>
+  <si>
+    <t>Means of Verification: Joint Field Visit (DOE, UNDP, JICA) Report, DOE webpage. Final Report of Feasibility Study</t>
+  </si>
+  <si>
+    <t>Government of Japan</t>
+  </si>
+  <si>
+    <t>Number of residents to have access to clean energy (disaggregated by: male, female and youth (15-24))</t>
+  </si>
+  <si>
+    <t>Means of Verification: Joint Field Visit (DOE, UNDP, JICA) Report. Registration Report of Utility Regulatory Authority (URA)</t>
+  </si>
+  <si>
+    <t>Number of government officials and staff trained</t>
+  </si>
+  <si>
+    <t>Means of Verification: Report on DOE Capacity building /Interview with capacitated staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t>Number of green/sustainable jobs created (disaggregated by: male, female and youth (15-24))</t>
+  </si>
+  <si>
+    <t>Means of Verification: Joint Field Visit (DOE, UNDP, JICA) Report, Market Survey</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Renewable EnergyEnergy Infrastructure</t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t>Number of news articles in national media</t>
+  </si>
+  <si>
+    <t>Newspaper, homepages etc on the project</t>
+  </si>
+  <si>
     <t>PIMS+</t>
   </si>
   <si>
-    <t>GHG Emissions Reduction</t>
-  </si>
-  <si>
     <t>Cumulative tons of incremental GHG emissions reduced from business as usual (tons CO2)</t>
   </si>
   <si>
-    <t>tons of CO2</t>
-  </si>
-  <si>
-    <t>GEF</t>
-  </si>
-  <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t>Incremental number of households (with at least 20% woman-headed) in rural areas whose level of energy access is increased via village-scale off-grid RE or that benefit from newly adopting EE cook stoves</t>
-  </si>
-  <si>
-    <t>14000 HH</t>
-  </si>
-  <si>
-    <t>FASNETT</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Prodoc pg. 82 GEF target</t>
-  </si>
-  <si>
-    <t>Some Sources</t>
-  </si>
-  <si>
-    <t>Cumulative GHG (CO2) emission reduction from power generation, tons CO2</t>
-  </si>
-  <si>
-    <t>tons CO2</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Number of women actively involved in the planing and implementation of energy services provision in the outer islands</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>Number of communities that are capable of organizing,  planning, designing, implementing, operating and maintaining RE-based power generation systems</t>
-  </si>
-  <si>
-    <t>4 communities</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Number of households, schools, public buildings and commercial eatblishments that are using low carbon technologies (by RE and EE based energy systems)</t>
-  </si>
-  <si>
-    <t>396 HH</t>
-  </si>
-  <si>
-    <t>410 HH</t>
-  </si>
-  <si>
-    <t>Number of planned RE and EE projects benefitting from the policies and regulations supported by the Energy Act</t>
-  </si>
-  <si>
-    <t>Legal Framework</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Number of companies adopting the established standards in supplying or producing RE/EE system equipment or component parts</t>
-  </si>
-  <si>
-    <t>Number of established and operational financing schemes for RE/EE projects</t>
-  </si>
-  <si>
-    <t>2 financing schemes</t>
-  </si>
-  <si>
-    <t>Financing Model</t>
-  </si>
-  <si>
-    <t>Small Enterprises</t>
-  </si>
-  <si>
-    <t>Number of private sector RE/EE projects financed by commercial banks and/or the private sector</t>
-  </si>
-  <si>
-    <t>SMARTEN</t>
-  </si>
-  <si>
-    <t>Cumulative GHG emission reduction from fossil fuel utilization in the electricity sector, tons CO2</t>
-  </si>
-  <si>
-    <t>tCO2</t>
-  </si>
-  <si>
-    <t>ton oil equivalent</t>
-  </si>
-  <si>
-    <t>Number of consumers</t>
-  </si>
-  <si>
-    <t>Prodoc pg. 91</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>Number of individuals gainfully employed in new jobs created due to the application of RE and EE technologies in the country</t>
-  </si>
-  <si>
-    <t>12 men and 12 women directly employed. 6 men and 6 women indirectly employed</t>
-  </si>
-  <si>
-    <t>POIDIER</t>
-  </si>
-  <si>
-    <t>Number of individuals in Kiribati that become gainfully engaged in RE and EE technology-related activities and businesses</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>number of outer island households with increased level of energy access by at least 50% more kWh/day electricity or improved cooking conditions</t>
-  </si>
-  <si>
-    <t>12274 HH</t>
-  </si>
-  <si>
-    <t>Number of local private sector firms that can capably provide technical, engineering, maintenance and billing services for SE and LC technology application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of adopted and enforced policies and regulations that facilitate increased LC technology applications </t>
-  </si>
-  <si>
-    <t>Number of government departments and/or companies that develop and implement bilateral agreements with EPU on well coordinated low carbon technology programs/projects for power and non-power applications</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Number of outer islands that officailly adopt and begin to implement whole island RE and EE plans</t>
-  </si>
-  <si>
-    <t>Number of financing achemes/mechanisms adopted by financial institutions for supportingclimate resielient and low-carbon development initiatives in the country</t>
-  </si>
-  <si>
-    <t>Number of outer island businesses that receive grants made from RE/EE specific financing mechanism for productive use equipment</t>
-  </si>
-  <si>
-    <t>Number of concessionaire-operated OI RE mini-grids successfully collecting revenues from all users (for at least 85% of the power used)</t>
-  </si>
-  <si>
-    <t>Number of households that receive cook stoves</t>
-  </si>
-  <si>
-    <t>pg. 143</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>Agriculture and Food System</t>
-  </si>
-  <si>
-    <t>Number of people benefitted from this program</t>
-  </si>
-  <si>
-    <t>pg. 140</t>
-  </si>
-  <si>
-    <t>MPSBEE</t>
-  </si>
-  <si>
-    <t>Cumulative incremental GHG emission reduction from the buildings sector, tons CO2e</t>
-  </si>
-  <si>
-    <t>Number of direct beneficiaries</t>
-  </si>
-  <si>
-    <t>pg. 76</t>
-  </si>
-  <si>
-    <t>Number of approved and followed EC and EE policies, and associated guidance and implementing rules and regulations</t>
-  </si>
-  <si>
-    <t>Number of public sector buildings that are compliant to energy standards stipulated in building EC and EE policies and associated guidance and implementing rules and regulations</t>
-  </si>
-  <si>
-    <t>Number of buildings reviewed under established and operational energy audit system for comprehensive best commercially available EE equipment, EE demos and replication renovations</t>
-  </si>
-  <si>
-    <t>Number of state/national level quarterly reports on public sector buildings energy use from state power utilities and consumption reports as per the EMRS</t>
-  </si>
-  <si>
-    <t>Number of building/Sectoral level ISO50001 style annual reports submitted to the FSM Energy Group</t>
-  </si>
-  <si>
-    <t>Number of trained public sector building personnel that can ably manage the design, implement and evaluate building of EC and EE application projects</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Fiji (+10 member countries of Pacific Island Development Forum)</t>
-  </si>
-  <si>
-    <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
-    <t>Campaign Participant</t>
-  </si>
-  <si>
-    <t>Number of news articles in national media</t>
-  </si>
-  <si>
-    <t>Newspaper, homepages etc on the project</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
     <t>Liters DFO</t>
   </si>
   <si>
@@ -403,9 +480,6 @@
   </si>
   <si>
     <t>to the CO: Please estimate MWs.</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
   </si>
   <si>
     <t>to the CO: Please estimate number of beneficiaries.</t>
@@ -427,7 +501,10 @@
     <t>US$</t>
   </si>
   <si>
-    <t>Nauru</t>
+    <t>tCO2</t>
+  </si>
+  <si>
+    <t>ton oil equivalent</t>
   </si>
   <si>
     <t>Percentage RE electricity production</t>
@@ -439,9 +516,6 @@
     <t>60 percent (with at least half being women)</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
     <t>Percentage of island population in demo outer islands that understand principles and benefits of LC development</t>
   </si>
   <si>
@@ -473,6 +547,9 @@
   </si>
   <si>
     <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Cumulative incremental GHG emission reduction from the buildings sector, tons CO2e</t>
   </si>
   <si>
     <t>tons oil equivalent of diesel</t>
@@ -553,9 +630,6 @@
     <t>Number of residents to have access to clean energy (diagregated by: male, female ad youth (15-24))</t>
   </si>
   <si>
-    <t>Number of government officials and staff trained</t>
-  </si>
-  <si>
     <t>Number of green/sustinable jobs created (disaggregated by: male, female and youth (15-24))</t>
   </si>
   <si>
@@ -614,9 +688,6 @@
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financing support </t>
   </si>
   <si>
     <t xml:space="preserve">Support for the development of market ecosystem </t>
@@ -659,7 +730,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+  </numFmts>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +814,45 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,8 +877,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -893,15 +1018,403 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -924,7 +1437,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,10 +1553,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,75 +1574,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,11 +1592,347 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1155,7 +1944,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1464,1719 +2254,1979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDC79C-B9D6-4852-8D1F-D5EAB1B16F2F}">
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="108" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="109" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="108" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="69" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="108" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="69" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="69" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="69" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="69" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" style="108" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:22" s="70" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="121.5">
-      <c r="A2" s="55">
+      <c r="V1" s="113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="150" customHeight="1">
+      <c r="A2" s="140">
         <v>115827</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="57">
+      <c r="C2" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="153">
         <v>1575829</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="60">
-        <v>0</v>
-      </c>
-      <c r="H2" s="60">
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="76">
+        <v>0</v>
+      </c>
+      <c r="I2" s="76">
         <v>11</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="78" t="s">
+      <c r="J2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="79" t="s">
+      <c r="K2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="L2" s="78"/>
+      <c r="M2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="80"/>
-    </row>
-    <row r="3" spans="1:21" ht="76.5">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="58" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="78"/>
+    </row>
+    <row r="3" spans="1:22" ht="75">
+      <c r="A3" s="141"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="82">
+        <v>0</v>
+      </c>
+      <c r="I3" s="82">
+        <v>12</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="84"/>
+    </row>
+    <row r="4" spans="1:22" ht="60.75" thickBot="1">
+      <c r="A4" s="142"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="88">
+        <v>0</v>
+      </c>
+      <c r="I4" s="88">
+        <v>12</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="60">
-        <v>0</v>
-      </c>
-      <c r="H3" s="60">
-        <v>12</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="80"/>
-    </row>
-    <row r="4" spans="1:21" ht="60.75">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="60">
-        <v>0</v>
-      </c>
-      <c r="H4" s="60">
-        <v>12</v>
-      </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="80"/>
-      <c r="T4" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="80" t="s">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="60.75">
-      <c r="A5" s="55">
+      <c r="S4" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="68"/>
+      <c r="U4" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="60.75">
+      <c r="A5" s="140">
         <v>5926</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="57">
+      <c r="B5" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="153">
         <v>2639726</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="60">
-        <v>0</v>
-      </c>
-      <c r="H5" s="67">
-        <v>45016.1</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="66" t="s">
+      <c r="F5" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="78" t="s">
+      <c r="G5" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="79" t="s">
+      <c r="H5" s="76">
+        <v>0</v>
+      </c>
+      <c r="I5" s="138">
+        <v>4.5016100000000003E-2</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="62"/>
+      <c r="K5" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="78"/>
+      <c r="M5" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="62"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="80"/>
-    </row>
-    <row r="6" spans="1:21" ht="121.5">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="58" t="s">
+      <c r="S5" s="62"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="78"/>
+    </row>
+    <row r="6" spans="1:22" ht="135.75" thickBot="1">
+      <c r="A6" s="142"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="88">
+        <v>0</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="L6" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="60">
-        <v>0</v>
-      </c>
-      <c r="H6" s="68" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="80"/>
-    </row>
-    <row r="7" spans="1:21" ht="30.75">
-      <c r="A7" s="55">
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="90"/>
+    </row>
+    <row r="7" spans="1:22" ht="30">
+      <c r="A7" s="140">
         <v>5613</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="57">
+      <c r="B7" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="153">
         <v>2639725</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
+      <c r="F7" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98">
         <v>7.2</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="62"/>
+      <c r="J7" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="78"/>
+      <c r="M7" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63" t="s">
+        <v>29</v>
+      </c>
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
-      <c r="S7" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="62"/>
-      <c r="U7" s="80"/>
-    </row>
-    <row r="8" spans="1:21" ht="60.75">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="60">
-        <v>0</v>
-      </c>
-      <c r="H8" s="68">
+      <c r="S7" s="62"/>
+      <c r="T7" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="62"/>
+      <c r="V7" s="78"/>
+    </row>
+    <row r="8" spans="1:22" ht="60">
+      <c r="A8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="82">
+        <v>0</v>
+      </c>
+      <c r="I8" s="100">
         <v>15000</v>
       </c>
-      <c r="I8" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="80"/>
-    </row>
-    <row r="9" spans="1:21" ht="76.5">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="60">
-        <v>0</v>
-      </c>
-      <c r="H9" s="60">
+      <c r="J8" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="84"/>
+      <c r="M8" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="84"/>
+    </row>
+    <row r="9" spans="1:22" ht="90">
+      <c r="A9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="82">
+        <v>0</v>
+      </c>
+      <c r="I9" s="82">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="80"/>
-    </row>
-    <row r="10" spans="1:21" ht="106.5">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="70" t="s">
+      <c r="J9" s="81"/>
+      <c r="K9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="84"/>
+      <c r="M9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="84"/>
+    </row>
+    <row r="10" spans="1:22" ht="105">
+      <c r="A10" s="141"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="103">
+        <v>0</v>
+      </c>
+      <c r="I10" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="84"/>
+    </row>
+    <row r="11" spans="1:22" ht="105">
+      <c r="A11" s="141"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="81"/>
+      <c r="K11" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="84"/>
+      <c r="M11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="72">
-        <v>0</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="80"/>
-    </row>
-    <row r="11" spans="1:21" ht="106.5">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="62"/>
-      <c r="U11" s="80"/>
-    </row>
-    <row r="12" spans="1:21" ht="76.5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="60">
-        <v>0</v>
-      </c>
-      <c r="H12" s="60">
+      <c r="U11" s="55"/>
+      <c r="V11" s="84"/>
+    </row>
+    <row r="12" spans="1:22" ht="90">
+      <c r="A12" s="141"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="82">
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
         <v>100</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="80"/>
-      <c r="T12" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="80"/>
-    </row>
-    <row r="13" spans="1:21" ht="91.5">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="60">
-        <v>0</v>
-      </c>
-      <c r="H13" s="60">
+      <c r="J12" s="81"/>
+      <c r="K12" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="84"/>
+      <c r="M12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="60"/>
+      <c r="U12" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="84"/>
+    </row>
+    <row r="13" spans="1:22" ht="90">
+      <c r="A13" s="141"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="82">
+        <v>0</v>
+      </c>
+      <c r="I13" s="82">
         <v>2</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="80"/>
-    </row>
-    <row r="14" spans="1:21" ht="45.75">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="60">
-        <v>0</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="80"/>
-      <c r="T14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="80"/>
-    </row>
-    <row r="15" spans="1:21" ht="60.75">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="58" t="s">
+      <c r="J13" s="81"/>
+      <c r="K13" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="84"/>
+      <c r="M13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="84"/>
+    </row>
+    <row r="14" spans="1:22" ht="60">
+      <c r="A14" s="141"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="82">
+        <v>0</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="81"/>
+      <c r="K14" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="84"/>
+      <c r="M14" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="60"/>
+      <c r="U14" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="60">
-        <v>0</v>
-      </c>
-      <c r="H15" s="60">
+      <c r="V14" s="84"/>
+    </row>
+    <row r="15" spans="1:22" ht="60.75" thickBot="1">
+      <c r="A15" s="142"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+      <c r="I15" s="88">
         <v>2</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="80"/>
-    </row>
-    <row r="16" spans="1:21" ht="60.75">
-      <c r="A16" s="55">
+      <c r="J15" s="87"/>
+      <c r="K15" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="90"/>
+      <c r="M15" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="90"/>
+    </row>
+    <row r="16" spans="1:22" ht="75">
+      <c r="A16" s="140">
         <v>6188</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="57">
+      <c r="B16" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="153">
         <v>3302968</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="60">
-        <v>0</v>
-      </c>
-      <c r="H16" s="68">
+      <c r="F16" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="76">
+        <v>0</v>
+      </c>
+      <c r="I16" s="104">
         <v>43858</v>
       </c>
-      <c r="I16" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="62"/>
+      <c r="J16" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="78"/>
+      <c r="M16" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63" t="s">
+        <v>29</v>
+      </c>
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="80"/>
-    </row>
-    <row r="17" spans="1:21" ht="30.75">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="60">
-        <v>0</v>
-      </c>
-      <c r="H17" s="68">
-        <v>27011</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="80"/>
-    </row>
-    <row r="18" spans="1:21" ht="30.75">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="58" t="s">
+      <c r="S16" s="62"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="78"/>
+    </row>
+    <row r="17" spans="1:22" ht="30.75">
+      <c r="A17" s="141"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="82">
+        <v>0</v>
+      </c>
+      <c r="I17" s="139">
+        <v>2.7011E-2</v>
+      </c>
+      <c r="J17" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="84"/>
+      <c r="M17" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="55"/>
+      <c r="O17" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="84"/>
+    </row>
+    <row r="18" spans="1:22" ht="30">
+      <c r="A18" s="141"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="100">
+        <v>350</v>
+      </c>
+      <c r="I18" s="100">
+        <v>1390</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="84"/>
+      <c r="M18" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="55"/>
+      <c r="O18" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="U18" s="55"/>
+      <c r="V18" s="84"/>
+    </row>
+    <row r="19" spans="1:22" ht="90.75" thickBot="1">
+      <c r="A19" s="142"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="68">
-        <v>350</v>
-      </c>
-      <c r="H18" s="68">
-        <v>1390</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T18" s="62"/>
-      <c r="U18" s="80"/>
-    </row>
-    <row r="19" spans="1:21" ht="76.5">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="60">
-        <v>0</v>
-      </c>
-      <c r="H19" s="69">
+      <c r="G19" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="88">
+        <v>0</v>
+      </c>
+      <c r="I19" s="105">
         <v>24</v>
       </c>
-      <c r="I19" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="35">
+      <c r="J19" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="95">
         <v>0.5</v>
       </c>
-      <c r="L19" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="80"/>
-    </row>
-    <row r="20" spans="1:21" ht="76.5">
-      <c r="A20" s="55">
+      <c r="M19" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="90"/>
+    </row>
+    <row r="20" spans="1:22" ht="75">
+      <c r="A20" s="140">
         <v>6159</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="B20" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="153">
         <v>5379452</v>
       </c>
-      <c r="E20" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="60">
-        <v>0</v>
-      </c>
-      <c r="H20" s="60">
+      <c r="F20" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="76">
+        <v>0</v>
+      </c>
+      <c r="I20" s="76">
         <v>60</v>
       </c>
-      <c r="I20" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="35">
+      <c r="J20" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="106">
         <v>0.5</v>
       </c>
-      <c r="L20" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="62"/>
-      <c r="N20" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="62"/>
+      <c r="M20" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63" t="s">
+        <v>46</v>
+      </c>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="80"/>
-    </row>
-    <row r="21" spans="1:21" ht="91.5">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="60">
-        <v>0</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="35">
+      <c r="S20" s="62"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="78"/>
+    </row>
+    <row r="21" spans="1:22" ht="105">
+      <c r="A21" s="141"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="82">
+        <v>0</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="81"/>
+      <c r="K21" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="107">
         <v>0.2</v>
       </c>
-      <c r="L21" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="T21" s="62"/>
-      <c r="U21" s="80"/>
-    </row>
-    <row r="22" spans="1:21" ht="106.5">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="58" t="s">
+      <c r="M21" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="O21" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="U21" s="55"/>
+      <c r="V21" s="84"/>
+    </row>
+    <row r="22" spans="1:22" ht="105">
+      <c r="A22" s="141"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="82">
+        <v>0</v>
+      </c>
+      <c r="I22" s="82">
+        <v>8</v>
+      </c>
+      <c r="J22" s="81"/>
+      <c r="K22" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="84"/>
+      <c r="M22" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="55"/>
+      <c r="O22" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="84"/>
+    </row>
+    <row r="23" spans="1:22" ht="75">
+      <c r="A23" s="141"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="82">
+        <v>0</v>
+      </c>
+      <c r="I23" s="82">
+        <v>13</v>
+      </c>
+      <c r="J23" s="81"/>
+      <c r="K23" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="84"/>
+      <c r="M23" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="60"/>
+      <c r="U23" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="V23" s="84"/>
+    </row>
+    <row r="24" spans="1:22" ht="150">
+      <c r="A24" s="141"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="82">
+        <v>0</v>
+      </c>
+      <c r="I24" s="82">
+        <v>4</v>
+      </c>
+      <c r="J24" s="81"/>
+      <c r="K24" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="84"/>
+      <c r="M24" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="84"/>
+    </row>
+    <row r="25" spans="1:22" ht="75">
+      <c r="A25" s="141"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="82">
+        <v>0</v>
+      </c>
+      <c r="I25" s="82">
+        <v>20</v>
+      </c>
+      <c r="J25" s="81"/>
+      <c r="K25" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="84"/>
+      <c r="M25" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="55"/>
+      <c r="O25" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="84"/>
+    </row>
+    <row r="26" spans="1:22" ht="120">
+      <c r="A26" s="141"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="82">
+        <v>0</v>
+      </c>
+      <c r="I26" s="82">
+        <v>1</v>
+      </c>
+      <c r="J26" s="81"/>
+      <c r="K26" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="84"/>
+      <c r="M26" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="55"/>
+      <c r="O26" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="60"/>
+      <c r="U26" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" s="84"/>
+    </row>
+    <row r="27" spans="1:22" ht="90">
+      <c r="A27" s="141"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="82">
+        <v>0</v>
+      </c>
+      <c r="I27" s="81">
+        <v>60</v>
+      </c>
+      <c r="J27" s="81"/>
+      <c r="K27" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="84"/>
+    </row>
+    <row r="28" spans="1:22" ht="90">
+      <c r="A28" s="141"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="82">
+        <v>0</v>
+      </c>
+      <c r="I28" s="82">
+        <v>15</v>
+      </c>
+      <c r="J28" s="81"/>
+      <c r="K28" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="84"/>
+      <c r="M28" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="O28" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="84"/>
+    </row>
+    <row r="29" spans="1:22" ht="30">
+      <c r="A29" s="141"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="82">
+        <v>0</v>
+      </c>
+      <c r="I29" s="82">
+        <v>11000</v>
+      </c>
+      <c r="J29" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="84"/>
+      <c r="M29" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="55"/>
+      <c r="O29" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="84"/>
+    </row>
+    <row r="30" spans="1:22" ht="30">
+      <c r="A30" s="141"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="82">
+        <v>0</v>
+      </c>
+      <c r="I30" s="82">
+        <v>0.4</v>
+      </c>
+      <c r="J30" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="84"/>
+      <c r="M30" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="55"/>
+      <c r="O30" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="60">
-        <v>0</v>
-      </c>
-      <c r="H22" s="60">
-        <v>8</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="80"/>
-    </row>
-    <row r="23" spans="1:21" ht="76.5">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="60">
-        <v>0</v>
-      </c>
-      <c r="H23" s="60">
-        <v>13</v>
-      </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="R23" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="80"/>
-      <c r="T23" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="U23" s="80"/>
-    </row>
-    <row r="24" spans="1:21" ht="152.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="60">
-        <v>0</v>
-      </c>
-      <c r="H24" s="60">
-        <v>4</v>
-      </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="62"/>
-      <c r="N24" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="80"/>
-    </row>
-    <row r="25" spans="1:21" ht="60.75">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="60">
-        <v>0</v>
-      </c>
-      <c r="H25" s="60">
-        <v>20</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="62"/>
-      <c r="N25" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="80"/>
-    </row>
-    <row r="26" spans="1:21" ht="121.5">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="60">
-        <v>0</v>
-      </c>
-      <c r="H26" s="60">
-        <v>1</v>
-      </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="62"/>
-      <c r="N26" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="S26" s="80"/>
-      <c r="T26" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="U26" s="80"/>
-    </row>
-    <row r="27" spans="1:21" ht="91.5">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="60">
-        <v>0</v>
-      </c>
-      <c r="H27" s="59">
-        <v>60</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="62"/>
-      <c r="N27" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="80"/>
-    </row>
-    <row r="28" spans="1:21" ht="91.5">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="60">
-        <v>0</v>
-      </c>
-      <c r="H28" s="60">
-        <v>15</v>
-      </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="62"/>
-      <c r="N28" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="80"/>
-    </row>
-    <row r="29" spans="1:21" ht="30.75">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="58" t="s">
+      <c r="U30" s="55"/>
+      <c r="V30" s="84"/>
+    </row>
+    <row r="31" spans="1:22" ht="45.75" thickBot="1">
+      <c r="A31" s="142"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="88">
+        <v>0</v>
+      </c>
+      <c r="I31" s="94">
+        <v>6000</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="60">
-        <v>0</v>
-      </c>
-      <c r="H29" s="60">
-        <v>11000</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="66"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="62"/>
-      <c r="N29" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="80"/>
-    </row>
-    <row r="30" spans="1:21" ht="30.75">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="60">
-        <v>0</v>
-      </c>
-      <c r="H30" s="60">
-        <v>0.4</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="62"/>
-      <c r="N30" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T30" s="62"/>
-      <c r="U30" s="80"/>
-    </row>
-    <row r="31" spans="1:21" ht="45.75">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="60">
-        <v>0</v>
-      </c>
-      <c r="H31" s="68">
-        <v>6000</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="62"/>
-      <c r="N31" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="80"/>
-    </row>
-    <row r="32" spans="1:21" ht="60.75">
-      <c r="A32" s="55">
+      <c r="L31" s="90"/>
+      <c r="M31" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="90"/>
+    </row>
+    <row r="32" spans="1:22" ht="60.75">
+      <c r="A32" s="140">
         <v>5997</v>
       </c>
-      <c r="B32" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="57">
+      <c r="B32" s="148" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="153">
         <v>1776484</v>
       </c>
-      <c r="E32" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="60">
-        <v>0</v>
-      </c>
-      <c r="H32" s="60">
-        <v>3974</v>
-      </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="66" t="s">
+      <c r="F32" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="62"/>
+      <c r="G32" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="76">
+        <v>0</v>
+      </c>
+      <c r="I32" s="76">
+        <v>3.9740000000000001E-3</v>
+      </c>
+      <c r="J32" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="78"/>
+      <c r="M32" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63" t="s">
+        <v>29</v>
+      </c>
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="80"/>
-    </row>
-    <row r="33" spans="1:21" ht="30.75">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="60">
-        <v>0</v>
-      </c>
-      <c r="H33" s="60">
+      <c r="S32" s="62"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="78"/>
+    </row>
+    <row r="33" spans="1:22" ht="30">
+      <c r="A33" s="141"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="82">
+        <v>0</v>
+      </c>
+      <c r="I33" s="82">
         <v>0.05</v>
       </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="62"/>
-      <c r="N33" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T33" s="62"/>
-      <c r="U33" s="80"/>
-    </row>
-    <row r="34" spans="1:21" ht="30.75">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="60">
-        <v>0</v>
-      </c>
-      <c r="H34" s="60">
+      <c r="J33" s="81"/>
+      <c r="K33" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="84"/>
+      <c r="M33" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="55"/>
+      <c r="O33" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="U33" s="55"/>
+      <c r="V33" s="84"/>
+    </row>
+    <row r="34" spans="1:22" ht="30">
+      <c r="A34" s="141"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="82">
+        <v>0</v>
+      </c>
+      <c r="I34" s="82">
         <v>2500</v>
       </c>
-      <c r="I34" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="66"/>
-      <c r="K34" s="35">
+      <c r="J34" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="107">
         <v>0.52</v>
       </c>
-      <c r="L34" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="62"/>
-      <c r="N34" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="80"/>
-    </row>
-    <row r="35" spans="1:21" ht="91.5">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="60">
-        <v>0</v>
-      </c>
-      <c r="H35" s="60">
+      <c r="M34" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="55"/>
+      <c r="O34" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="84"/>
+    </row>
+    <row r="35" spans="1:22" ht="90">
+      <c r="A35" s="141"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="82">
+        <v>0</v>
+      </c>
+      <c r="I35" s="82">
         <v>3</v>
       </c>
-      <c r="I35" s="59"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="62"/>
-      <c r="N35" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62" t="s">
+      <c r="J35" s="81"/>
+      <c r="K35" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="84"/>
+      <c r="M35" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="55"/>
+      <c r="O35" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="S35" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="T35" s="60"/>
+      <c r="U35" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="V35" s="84"/>
+    </row>
+    <row r="36" spans="1:22" ht="120">
+      <c r="A36" s="141"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="82">
+        <v>0</v>
+      </c>
+      <c r="I36" s="82">
+        <v>14</v>
+      </c>
+      <c r="J36" s="81"/>
+      <c r="K36" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="84"/>
+      <c r="M36" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="55"/>
+      <c r="O36" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="84"/>
+    </row>
+    <row r="37" spans="1:22" ht="135">
+      <c r="A37" s="141"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="82">
+        <v>0</v>
+      </c>
+      <c r="I37" s="82">
+        <v>30</v>
+      </c>
+      <c r="J37" s="81"/>
+      <c r="K37" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="84"/>
+      <c r="M37" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="55"/>
+      <c r="O37" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="84"/>
+    </row>
+    <row r="38" spans="1:22" ht="105">
+      <c r="A38" s="141"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="82">
+        <v>0</v>
+      </c>
+      <c r="I38" s="82">
+        <v>4</v>
+      </c>
+      <c r="J38" s="81"/>
+      <c r="K38" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="84"/>
+      <c r="M38" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="55"/>
+      <c r="O38" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="84"/>
+    </row>
+    <row r="39" spans="1:22" ht="75">
+      <c r="A39" s="141"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="82">
+        <v>0</v>
+      </c>
+      <c r="I39" s="82">
+        <v>14</v>
+      </c>
+      <c r="J39" s="81"/>
+      <c r="K39" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="84"/>
+      <c r="M39" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="84"/>
+    </row>
+    <row r="40" spans="1:22" ht="105.75" thickBot="1">
+      <c r="A40" s="141"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="116">
+        <v>0</v>
+      </c>
+      <c r="I40" s="116">
+        <v>10</v>
+      </c>
+      <c r="J40" s="115"/>
+      <c r="K40" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="118"/>
+      <c r="M40" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="120"/>
+      <c r="O40" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="118"/>
+    </row>
+    <row r="41" spans="1:22" ht="105" customHeight="1">
+      <c r="A41" s="157">
+        <v>1000416</v>
+      </c>
+      <c r="B41" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="166"/>
+      <c r="D41" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="163">
+        <v>4622265</v>
+      </c>
+      <c r="F41" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="127">
+        <v>2</v>
+      </c>
+      <c r="I41" s="127">
+        <v>10</v>
+      </c>
+      <c r="J41" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" s="129"/>
+      <c r="M41" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="130"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="131"/>
+    </row>
+    <row r="42" spans="1:22" ht="75">
+      <c r="A42" s="158"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="S35" s="80"/>
-      <c r="T35" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="U35" s="80"/>
-    </row>
-    <row r="36" spans="1:21" ht="121.5">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="60">
-        <v>0</v>
-      </c>
-      <c r="H36" s="60">
-        <v>14</v>
-      </c>
-      <c r="I36" s="59"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="62"/>
-      <c r="N36" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="80"/>
-    </row>
-    <row r="37" spans="1:21" ht="121.5">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="60">
-        <v>0</v>
-      </c>
-      <c r="H37" s="60">
-        <v>30</v>
-      </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="62"/>
-      <c r="N37" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="80"/>
-    </row>
-    <row r="38" spans="1:21" ht="106.5">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="60">
-        <v>0</v>
-      </c>
-      <c r="H38" s="60">
-        <v>4</v>
-      </c>
-      <c r="I38" s="59"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="62"/>
-      <c r="N38" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="80"/>
-    </row>
-    <row r="39" spans="1:21" ht="76.5">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="60">
-        <v>0</v>
-      </c>
-      <c r="H39" s="60">
-        <v>14</v>
-      </c>
-      <c r="I39" s="59"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="62"/>
-      <c r="N39" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="80"/>
-    </row>
-    <row r="40" spans="1:21" ht="91.5">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="60">
-        <v>0</v>
-      </c>
-      <c r="H40" s="60">
+      <c r="G42" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="123">
+        <v>1250</v>
+      </c>
+      <c r="I42" s="123">
+        <v>3616</v>
+      </c>
+      <c r="J42" s="124" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="173"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="167"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="132"/>
+    </row>
+    <row r="43" spans="1:22" ht="60">
+      <c r="A43" s="158"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="123">
+        <v>2</v>
+      </c>
+      <c r="I43" s="123">
+        <v>12</v>
+      </c>
+      <c r="J43" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="173"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="167"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="132"/>
+    </row>
+    <row r="44" spans="1:22" ht="75.75" thickBot="1">
+      <c r="A44" s="159"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="133">
         <v>10</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="M40" s="62"/>
-      <c r="N40" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="80"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="M46" s="27"/>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="M47" s="27"/>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="M48" s="27"/>
-    </row>
-    <row r="49" spans="7:13">
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="7:13">
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="7:13">
-      <c r="M51" s="27"/>
-    </row>
-    <row r="52" spans="7:13">
-      <c r="M52" s="27"/>
-    </row>
-    <row r="53" spans="7:13">
-      <c r="G53" s="1"/>
-      <c r="M53" s="27"/>
-    </row>
-    <row r="54" spans="7:13">
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="7:13">
-      <c r="M55" s="27"/>
-    </row>
-    <row r="56" spans="7:13">
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="7:13">
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="7:13">
-      <c r="M58" s="27"/>
-    </row>
-    <row r="59" spans="7:13">
-      <c r="M59" s="27"/>
-    </row>
-    <row r="60" spans="7:13">
-      <c r="M60" s="27"/>
-    </row>
-    <row r="61" spans="7:13">
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="7:13">
-      <c r="M62" s="27"/>
-    </row>
-    <row r="63" spans="7:13">
-      <c r="M63" s="27"/>
+      <c r="I44" s="133">
+        <v>20</v>
+      </c>
+      <c r="J44" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="174"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="137"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="N46" s="27"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="N47" s="27"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="N48" s="27"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="E32:E40"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+  </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P40" xr:uid="{C439934C-3034-436E-8E3C-251ABD166B98}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q40" xr:uid="{C439934C-3034-436E-8E3C-251ABD166B98}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P41:P77" xr:uid="{EA5FC6D5-B093-4DC3-A5EC-B83C46170898}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O41:O77 N2:N40" xr:uid="{1444403A-6234-44D2-8221-8F1C9266EC91}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O40 P41:P65" xr:uid="{1444403A-6234-44D2-8221-8F1C9266EC91}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R41:R76 Q2:Q40" xr:uid="{101C01E0-252F-4BB5-B89D-F673AA351BDF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R40 S41:S64" xr:uid="{101C01E0-252F-4BB5-B89D-F673AA351BDF}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O40" xr:uid="{3A867DC6-B9EB-41A5-826E-F8394338B2AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P40" xr:uid="{3A867DC6-B9EB-41A5-826E-F8394338B2AE}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L40" xr:uid="{0D994A3A-584E-426B-9369-BF5EC4AD91B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M40" xr:uid="{0D994A3A-584E-426B-9369-BF5EC4AD91B1}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M40" xr:uid="{004A2D53-B44B-4778-A27F-5351D486295A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N40" xr:uid="{004A2D53-B44B-4778-A27F-5351D486295A}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T40" xr:uid="{5BB1851A-5E91-4F13-8A53-D2A78CAC9155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U40" xr:uid="{5BB1851A-5E91-4F13-8A53-D2A78CAC9155}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S40" xr:uid="{E40A156D-7465-402C-ADEC-9CA0476888F0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T40" xr:uid="{E40A156D-7465-402C-ADEC-9CA0476888F0}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R40" xr:uid="{3868A7C2-96DA-4130-8E4C-4F1CAF5C20B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S40" xr:uid="{3868A7C2-96DA-4130-8E4C-4F1CAF5C20B6}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q41:Q65" xr:uid="{EA5FC6D5-B093-4DC3-A5EC-B83C46170898}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{506D29C7-E17C-48DD-B1F9-0BA424C1B44E}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{A35418E9-0481-4C3A-827D-13D8440FCDD7}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{D5C49423-241B-4FCB-BEE4-DF9FEA57BD8B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{99529E86-EC54-49CE-9438-35E3D7D32771}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{56E76EB6-516F-4A8C-BFE2-41448450F3BB}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{6BA573D1-F7B6-4CC6-BB70-DE9056C62977}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3186,7 +4236,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E40</xm:sqref>
+          <xm:sqref>F2:F40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3198,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD8FC40-B3FE-463A-89F3-C6C42EBB8E90}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3230,72 +4280,72 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="O1" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="121.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="135">
       <c r="A2" s="46">
         <v>115827</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="44">
         <v>1575829</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3304,39 +4354,39 @@
         <v>11</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="39" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
     </row>
-    <row r="3" spans="1:19" ht="76.5">
+    <row r="3" spans="1:19" ht="75">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="49"/>
       <c r="D3" s="45"/>
       <c r="E3" s="41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3345,35 +4395,35 @@
         <v>12</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="33"/>
       <c r="L3" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="33"/>
       <c r="N3" s="39"/>
       <c r="O3" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:19" ht="91.5">
+    <row r="4" spans="1:19" ht="90">
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="49"/>
       <c r="D4" s="45"/>
       <c r="E4" s="41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3385,34 +4435,34 @@
       <c r="J4" s="30"/>
       <c r="K4" s="33"/>
       <c r="L4" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="33"/>
       <c r="N4" s="39"/>
       <c r="O4" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="33"/>
       <c r="R4" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="60.75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="49"/>
       <c r="D5" s="45"/>
       <c r="E5" s="41" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3421,43 +4471,43 @@
         <v>48</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="39"/>
       <c r="O5" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
     </row>
-    <row r="6" spans="1:19" ht="60.75">
+    <row r="6" spans="1:19" ht="75">
       <c r="A6" s="52">
         <v>5926</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D6" s="22">
         <v>2639726</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -3466,45 +4516,45 @@
         <v>45016.1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="40" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
     </row>
-    <row r="7" spans="1:19" ht="121.5">
+    <row r="7" spans="1:19" ht="135">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="51"/>
       <c r="E7" s="50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="31"/>
@@ -3512,21 +4562,21 @@
         <v>0.2</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="40"/>
       <c r="O7" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="33"/>
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
     </row>
-    <row r="8" spans="1:19" ht="45.75">
+    <row r="8" spans="1:19" ht="45">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -3540,26 +4590,26 @@
         <v>704</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="40"/>
       <c r="O8" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="1:19" ht="45.75">
+    <row r="9" spans="1:19" ht="45">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -3573,82 +4623,82 @@
         <v>24960</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="40"/>
       <c r="O9" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
     </row>
-    <row r="10" spans="1:19" ht="60.75">
+    <row r="10" spans="1:19" ht="45">
       <c r="A10" s="46">
         <v>5613</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D10" s="44">
         <v>2639725</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="10" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="G10" s="16">
         <v>0.26</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
     </row>
-    <row r="11" spans="1:19" ht="60.75">
+    <row r="11" spans="1:19" ht="60">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="45"/>
       <c r="E11" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3657,35 +4707,35 @@
         <v>15000</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="39"/>
       <c r="O11" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
     </row>
-    <row r="12" spans="1:19" ht="76.5">
+    <row r="12" spans="1:19" ht="90">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3697,30 +4747,30 @@
       <c r="J12" s="30"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="39"/>
       <c r="O12" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="33"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
     </row>
-    <row r="13" spans="1:19" ht="106.5">
+    <row r="13" spans="1:19" ht="105">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
       <c r="D13" s="45"/>
       <c r="E13" s="41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3732,32 +4782,32 @@
       <c r="J13" s="30"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="33"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:19" ht="106.5">
+    <row r="14" spans="1:19" ht="105">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="45"/>
       <c r="E14" s="41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7">
         <v>396</v>
@@ -3769,32 +4819,32 @@
       <c r="J14" s="30"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N14" s="39"/>
       <c r="O14" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:19" ht="76.5">
+    <row r="15" spans="1:19" ht="90">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="45"/>
       <c r="E15" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3806,34 +4856,34 @@
       <c r="J15" s="30"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="39"/>
       <c r="O15" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="33"/>
       <c r="R15" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="91.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="90">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="45"/>
       <c r="E16" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3845,34 +4895,34 @@
       <c r="J16" s="30"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="39"/>
       <c r="O16" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="33"/>
       <c r="R16" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="106.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="105">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="45"/>
       <c r="E17" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3884,32 +4934,32 @@
       <c r="J17" s="30"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N17" s="39"/>
       <c r="O17" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="33"/>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="60.75">
+    <row r="18" spans="1:19" ht="60">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="45"/>
       <c r="E18" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7">
         <v>16</v>
@@ -3921,32 +4971,32 @@
       <c r="J18" s="30"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N18" s="39"/>
       <c r="O18" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="33"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" ht="60.75">
+    <row r="19" spans="1:19" ht="60">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="45"/>
       <c r="E19" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3958,32 +5008,32 @@
       <c r="J19" s="30"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N19" s="39"/>
       <c r="O19" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="33"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" ht="60.75">
+    <row r="20" spans="1:19" ht="60">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="45"/>
       <c r="E20" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3995,32 +5045,32 @@
       <c r="J20" s="30"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N20" s="39"/>
       <c r="O20" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
     </row>
-    <row r="21" spans="1:19" ht="60.75">
+    <row r="21" spans="1:19" ht="60">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="45"/>
       <c r="E21" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4029,45 +5079,45 @@
         <v>400000</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N21" s="39"/>
       <c r="O21" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="33"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
     </row>
-    <row r="22" spans="1:19" ht="60.75">
+    <row r="22" spans="1:19" ht="75">
       <c r="A22" s="52">
         <v>6188</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D22" s="22">
         <v>3302968</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
@@ -4076,39 +5126,39 @@
         <v>43858</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M22" s="33"/>
       <c r="N22" s="40" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
     </row>
-    <row r="23" spans="1:19" ht="60.75">
+    <row r="23" spans="1:19" ht="45">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="51"/>
       <c r="E23" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -4117,72 +5167,72 @@
         <v>27011</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M23" s="33"/>
       <c r="N23" s="40"/>
       <c r="O23" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:19" ht="60.75">
+    <row r="24" spans="1:19" ht="45">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
       <c r="D24" s="51"/>
       <c r="E24" s="50" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="13" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="N24" s="40"/>
       <c r="O24" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:19" ht="76.5">
+    <row r="25" spans="1:19" ht="90">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
       <c r="D25" s="51"/>
       <c r="E25" s="50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -4191,90 +5241,90 @@
         <v>24</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="35">
         <v>0.5</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="40"/>
       <c r="O25" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="33"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
     </row>
-    <row r="26" spans="1:19" ht="76.5">
+    <row r="26" spans="1:19" ht="75">
       <c r="A26" s="46">
         <v>6159</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D26" s="44">
         <v>5379452</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K26" s="35">
         <v>0.5</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="33"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
     </row>
-    <row r="27" spans="1:19" ht="76.5">
+    <row r="27" spans="1:19" ht="75">
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="45"/>
       <c r="E27" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -4286,32 +5336,32 @@
       <c r="J27" s="30"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N27" s="39"/>
       <c r="O27" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="33"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
     </row>
-    <row r="28" spans="1:19" ht="106.5">
+    <row r="28" spans="1:19" ht="105">
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="45"/>
       <c r="E28" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4323,30 +5373,30 @@
       <c r="J28" s="30"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="39"/>
       <c r="O28" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="33"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" ht="76.5">
+    <row r="29" spans="1:19" ht="75">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="45"/>
       <c r="E29" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4358,34 +5408,34 @@
       <c r="J29" s="30"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="39"/>
       <c r="O29" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="33"/>
       <c r="R29" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S29" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="152.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="150">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="45"/>
       <c r="E30" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4397,34 +5447,34 @@
       <c r="J30" s="30"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M30" s="38"/>
       <c r="N30" s="39"/>
       <c r="O30" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="33"/>
       <c r="R30" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S30" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="60.75">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="75">
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="45"/>
       <c r="E31" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -4436,34 +5486,34 @@
       <c r="J31" s="30"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M31" s="38"/>
       <c r="N31" s="39"/>
       <c r="O31" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S31" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="121.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="120">
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="45"/>
       <c r="E32" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -4475,32 +5525,32 @@
       <c r="J32" s="30"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N32" s="39"/>
       <c r="O32" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="91.5">
+    <row r="33" spans="1:19" ht="90">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="45"/>
       <c r="E33" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -4514,30 +5564,30 @@
         <v>0.5</v>
       </c>
       <c r="L33" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M33" s="38"/>
       <c r="N33" s="39"/>
       <c r="O33" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q33" s="33"/>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" ht="91.5">
+    <row r="34" spans="1:19" ht="90">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="45"/>
       <c r="E34" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
@@ -4549,32 +5599,32 @@
       <c r="J34" s="30"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N34" s="39"/>
       <c r="O34" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="33"/>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="1:19" ht="91.5">
+    <row r="35" spans="1:19" ht="90">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="45"/>
       <c r="E35" s="41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -4586,32 +5636,32 @@
       <c r="J35" s="30"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N35" s="39"/>
       <c r="O35" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="1:19" ht="106.5">
+    <row r="36" spans="1:19" ht="105">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="D36" s="45"/>
       <c r="E36" s="41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -4623,32 +5673,32 @@
       <c r="J36" s="30"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N36" s="39"/>
       <c r="O36" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q36" s="33"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
     </row>
-    <row r="37" spans="1:19" ht="91.5">
+    <row r="37" spans="1:19" ht="90">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="D37" s="45"/>
       <c r="E37" s="41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -4660,32 +5710,32 @@
       <c r="J37" s="30"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N37" s="39"/>
       <c r="O37" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
     </row>
-    <row r="38" spans="1:19" ht="60.75">
+    <row r="38" spans="1:19" ht="45">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="45"/>
       <c r="E38" s="41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -4694,35 +5744,35 @@
         <v>0.4</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M38" s="38"/>
       <c r="N38" s="39"/>
       <c r="O38" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="33"/>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="1:19" ht="76.5">
+    <row r="39" spans="1:19" ht="75">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="45"/>
       <c r="E39" s="41" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -4731,45 +5781,45 @@
         <v>109325</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N39" s="39"/>
       <c r="O39" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="1:19" ht="60.75">
+    <row r="40" spans="1:19" ht="60">
       <c r="A40" s="52">
         <v>5997</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D40" s="22">
         <v>1776484</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G40" s="11">
         <v>150</v>
@@ -4778,41 +5828,41 @@
         <v>140</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="N40" s="40" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="O40" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q40" s="33"/>
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="1:19" ht="60.75">
+    <row r="41" spans="1:19" ht="60">
       <c r="A41" s="53"/>
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="D41" s="51"/>
       <c r="E41" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
@@ -4824,30 +5874,30 @@
       <c r="J41" s="31"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="40"/>
       <c r="O41" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:19" ht="60.75">
+    <row r="42" spans="1:19" ht="45">
       <c r="A42" s="53"/>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
       <c r="D42" s="51"/>
       <c r="E42" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
@@ -4856,35 +5906,35 @@
         <v>2017</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J42" s="31"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="40"/>
       <c r="O42" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q42" s="33"/>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="1:19" ht="76.5">
+    <row r="43" spans="1:19" ht="75">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
       <c r="D43" s="51"/>
       <c r="E43" s="50" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="G43" s="11">
         <v>0</v>
@@ -4896,30 +5946,30 @@
       <c r="J43" s="31"/>
       <c r="K43" s="33"/>
       <c r="L43" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M43" s="38"/>
       <c r="N43" s="40"/>
       <c r="O43" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q43" s="33"/>
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
     </row>
-    <row r="44" spans="1:19" ht="91.5">
+    <row r="44" spans="1:19" ht="90">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
       <c r="D44" s="51"/>
       <c r="E44" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G44" s="11">
         <v>0</v>
@@ -4931,34 +5981,34 @@
       <c r="J44" s="31"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M44" s="38"/>
       <c r="N44" s="40"/>
       <c r="O44" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q44" s="33"/>
       <c r="R44" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="121.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="120">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="51"/>
       <c r="E45" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G45" s="11">
         <v>0</v>
@@ -4970,34 +6020,34 @@
       <c r="J45" s="31"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M45" s="38"/>
       <c r="N45" s="40"/>
       <c r="O45" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P45" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q45" s="33"/>
       <c r="R45" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S45" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="121.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="135">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
       <c r="D46" s="51"/>
       <c r="E46" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -5009,34 +6059,34 @@
       <c r="J46" s="31"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="40"/>
       <c r="O46" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q46" s="33"/>
       <c r="R46" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="106.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="105">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
       <c r="D47" s="51"/>
       <c r="E47" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -5048,34 +6098,34 @@
       <c r="J47" s="31"/>
       <c r="K47" s="33"/>
       <c r="L47" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="40"/>
       <c r="O47" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q47" s="33"/>
       <c r="R47" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S47" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="76.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="75">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
       <c r="D48" s="51"/>
       <c r="E48" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -5087,34 +6137,34 @@
       <c r="J48" s="31"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="40"/>
       <c r="O48" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q48" s="33"/>
       <c r="R48" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S48" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="91.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="90">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
       <c r="D49" s="51"/>
       <c r="E49" s="50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G49" s="11">
         <v>0</v>
@@ -5126,32 +6176,32 @@
       <c r="J49" s="31"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N49" s="40"/>
       <c r="O49" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P49" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q49" s="33"/>
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" ht="106.5">
+    <row r="50" spans="1:19" ht="120">
       <c r="A50" s="53"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
       <c r="D50" s="51"/>
       <c r="E50" s="50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G50" s="11">
         <v>0</v>
@@ -5163,32 +6213,32 @@
       <c r="J50" s="31"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N50" s="40"/>
       <c r="O50" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P50" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q50" s="33"/>
       <c r="R50" s="33"/>
       <c r="S50" s="33"/>
     </row>
-    <row r="51" spans="1:19" ht="91.5">
+    <row r="51" spans="1:19" ht="105">
       <c r="A51" s="53"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
       <c r="D51" s="51"/>
       <c r="E51" s="50" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
@@ -5200,30 +6250,30 @@
       <c r="J51" s="31"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="40"/>
       <c r="O51" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q51" s="33"/>
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
     </row>
-    <row r="52" spans="1:19" ht="91.5">
+    <row r="52" spans="1:19" ht="90">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
       <c r="D52" s="43"/>
       <c r="E52" s="50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G52" s="11">
         <v>0</v>
@@ -5235,17 +6285,17 @@
       <c r="J52" s="31"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M52" s="38" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N52" s="40"/>
       <c r="O52" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P52" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q52" s="33"/>
       <c r="R52" s="33"/>
@@ -5364,7 +6414,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5383,7 +6433,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5395,48 +6445,48 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="121.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="135">
       <c r="A2" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7">
         <v>115827</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7">
         <v>1310000</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -5445,23 +6495,23 @@
         <v>12</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="76.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="9" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -5470,21 +6520,21 @@
         <v>12</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="60.75">
+    <row r="4" spans="1:11" ht="60">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="9" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5495,17 +6545,17 @@
       <c r="J4" s="10"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="30.75">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5514,31 +6564,31 @@
         <v>48</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="60.75">
+    <row r="6" spans="1:11" ht="75">
       <c r="A6" s="11" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11">
         <v>5926</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E6" s="11">
         <v>2639726</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -5547,23 +6597,23 @@
         <v>45016.1</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="121.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="135">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -5574,17 +6624,17 @@
       <c r="J7" s="13"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5">
+    <row r="8" spans="1:11" ht="90">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -5593,21 +6643,21 @@
         <v>272212</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="60.75">
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -5616,31 +6666,31 @@
         <v>15.6</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="30.75">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="7" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7">
         <v>5613</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E10" s="7">
         <v>2639725</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H10" s="16">
         <v>0.26</v>
@@ -5649,23 +6699,23 @@
         <v>0.67</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60.75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5674,21 +6724,21 @@
         <v>15000</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5">
+    <row r="12" spans="1:11" ht="90">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5699,17 +6749,17 @@
       <c r="J12" s="10"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="106.5">
+    <row r="13" spans="1:11" ht="105">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5720,17 +6770,17 @@
       <c r="J13" s="10"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="106.5">
+    <row r="14" spans="1:11" ht="105">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -5741,17 +6791,17 @@
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="76.5">
+    <row r="15" spans="1:11" ht="90">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5762,17 +6812,17 @@
       <c r="J15" s="10"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="91.5">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5783,17 +6833,17 @@
       <c r="J16" s="10"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="106.5">
+    <row r="17" spans="1:11" ht="105">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5804,17 +6854,17 @@
       <c r="J17" s="10"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="60.75">
+    <row r="18" spans="1:11" ht="60">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5825,17 +6875,17 @@
       <c r="J18" s="10"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="45.75">
+    <row r="19" spans="1:11" ht="60">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5846,17 +6896,17 @@
       <c r="J19" s="10"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="60.75">
+    <row r="20" spans="1:11" ht="60">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5867,17 +6917,17 @@
       <c r="J20" s="10"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="60.75">
+    <row r="21" spans="1:11" ht="60">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5886,31 +6936,31 @@
         <v>400000</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="60.75">
+    <row r="22" spans="1:11" ht="75">
       <c r="A22" s="11" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B22" s="11">
         <v>6188</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E22" s="11">
         <v>3302968</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
@@ -5919,23 +6969,23 @@
         <v>43858</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="91.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="105">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
@@ -5944,21 +6994,21 @@
         <v>13955</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="30.75">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="H24" s="18">
         <v>0.03</v>
@@ -5967,79 +7017,79 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="76.5">
+    <row r="25" spans="1:11" ht="90">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" ht="76.5">
+    <row r="26" spans="1:11" ht="75">
       <c r="A26" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B26" s="7">
         <v>6159</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E26" s="7">
         <v>5379452</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="76.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="75">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="H27" s="16">
         <v>0</v>
@@ -6050,17 +7100,17 @@
       <c r="J27" s="10"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="106.5">
+    <row r="28" spans="1:11" ht="105">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6071,17 +7121,17 @@
       <c r="J28" s="10"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="76.5">
+    <row r="29" spans="1:11" ht="75">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6092,17 +7142,17 @@
       <c r="J29" s="10"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="152.25">
+    <row r="30" spans="1:11" ht="150">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6113,17 +7163,17 @@
       <c r="J30" s="10"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" ht="60.75">
+    <row r="31" spans="1:11" ht="75">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6134,17 +7184,17 @@
       <c r="J31" s="10"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="121.5">
+    <row r="32" spans="1:11" ht="120">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6155,38 +7205,38 @@
       <c r="J32" s="10"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="91.5">
+    <row r="33" spans="1:11" ht="90">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="91.5">
+    <row r="34" spans="1:11" ht="90">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6197,17 +7247,17 @@
       <c r="J34" s="10"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="91.5">
+    <row r="35" spans="1:11" ht="90">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6218,17 +7268,17 @@
       <c r="J35" s="10"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="106.5">
+    <row r="36" spans="1:11" ht="105">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6239,17 +7289,17 @@
       <c r="J36" s="10"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="91.5">
+    <row r="37" spans="1:11" ht="90">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6260,17 +7310,17 @@
       <c r="J37" s="10"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="45.75">
+    <row r="38" spans="1:11" ht="45">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6279,21 +7329,21 @@
         <v>3460300</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="76.5">
+    <row r="39" spans="1:11" ht="75">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6302,31 +7352,31 @@
         <v>109325</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="60.75">
+    <row r="40" spans="1:11" ht="60">
       <c r="A40" s="11" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B40" s="11">
         <v>5997</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E40" s="11">
         <v>1776484</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="H40" s="11">
         <v>150</v>
@@ -6335,23 +7385,23 @@
         <v>140</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="60.75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="60">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
@@ -6362,17 +7412,17 @@
       <c r="J41" s="13"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" ht="91.5">
+    <row r="42" spans="1:11" ht="105">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
@@ -6381,21 +7431,21 @@
         <v>1042.0999999999999</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" ht="76.5">
+    <row r="43" spans="1:11" ht="75">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -6406,17 +7456,17 @@
       <c r="J43" s="13"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" ht="91.5">
+    <row r="44" spans="1:11" ht="90">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
@@ -6427,17 +7477,17 @@
       <c r="J44" s="13"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" ht="121.5">
+    <row r="45" spans="1:11" ht="120">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H45" s="11">
         <v>0</v>
@@ -6448,17 +7498,17 @@
       <c r="J45" s="13"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" ht="121.5">
+    <row r="46" spans="1:11" ht="135">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
@@ -6469,17 +7519,17 @@
       <c r="J46" s="13"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="106.5">
+    <row r="47" spans="1:11" ht="105">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
@@ -6490,17 +7540,17 @@
       <c r="J47" s="13"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="76.5">
+    <row r="48" spans="1:11" ht="75">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
@@ -6511,17 +7561,17 @@
       <c r="J48" s="13"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="91.5">
+    <row r="49" spans="1:11" ht="90">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="H49" s="11">
         <v>0</v>
@@ -6532,17 +7582,17 @@
       <c r="J49" s="13"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="1:11" ht="106.5">
+    <row r="50" spans="1:11" ht="120">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
@@ -6553,17 +7603,17 @@
       <c r="J50" s="13"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" ht="91.5">
+    <row r="51" spans="1:11" ht="105">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
@@ -6574,17 +7624,17 @@
       <c r="J51" s="13"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" ht="91.5">
+    <row r="52" spans="1:11" ht="90">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H52" s="22">
         <v>0</v>
@@ -6595,25 +7645,25 @@
       <c r="J52" s="24"/>
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="1:11" ht="106.5">
+    <row r="53" spans="1:11" ht="105">
       <c r="A53" s="9" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="B53" s="9">
         <v>1000416</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
         <v>4622265</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="H53" s="9">
         <v>2</v>
@@ -6622,23 +7672,23 @@
         <v>10</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="76.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="75">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H54" s="9">
         <v>1250</v>
@@ -6649,17 +7699,17 @@
       <c r="J54" s="21"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" ht="30.75">
+    <row r="55" spans="1:11" ht="30">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="H55" s="9">
         <v>2</v>
@@ -6670,17 +7720,17 @@
       <c r="J55" s="21"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" ht="60.75">
+    <row r="56" spans="1:11" ht="75">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="H56" s="9">
         <v>10</v>
@@ -6718,7 +7768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -6728,179 +7778,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="175" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90">
+      <c r="A6" s="175" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" s="175" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="175" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="176" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="175" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="175" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="175" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="176" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="175" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="175" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="175" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="175" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="176" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="175" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="175" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="84" t="s">
-        <v>197</v>
+      <c r="B22" s="176" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6909,26 +7959,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -7183,14 +8213,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53FBF50-A96C-483F-B09E-11D8C1EEF414}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFE58BC-0343-491D-81D1-6EA5BABC1A21}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E4DDC6-93DE-4726-9ACE-7BD62907D096}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53FBF50-A96C-483F-B09E-11D8C1EEF414}"/>
 </file>